--- a/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
+++ b/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
@@ -8,6 +8,7 @@
     <sheet name="location" sheetId="3" r:id="rId3"/>
     <sheet name="occurrence" sheetId="4" r:id="rId4"/>
     <sheet name="measurementOrFact" sheetId="5" r:id="rId5"/>
+    <sheet name="organism" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -36,14 +37,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="7">
+  <numFmts count="10">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="[$-1009]d/mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -407,37 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eventId</v>
-      </c>
-      <c r="B1" t="str">
-        <v xml:space="preserve">basisOfRecord </v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>SA-1:BISID-1:0:0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>HumanObservation</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,33 +421,403 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>eventDate</v>
-      </c>
-      <c r="C1" t="str">
-        <v>eventRemarks</v>
+        <v xml:space="preserve">basisOfRecord </v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:22:0</v>
       </c>
       <c r="B2" t="str">
-        <v>27/Feb/23</v>
-      </c>
-      <c r="C2" t="str">
-        <v>coments son</v>
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8-9:22:1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>8-9:23:2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>8-9:23:3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>8-9:23:4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>8-9:23:5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>8-9:26:6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8-9:26:7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>8-9:26:8</v>
+      </c>
+      <c r="B10" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>8-9:26:9</v>
+      </c>
+      <c r="B11" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>8-9:26:10</v>
+      </c>
+      <c r="B12" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>8-9:26:11</v>
+      </c>
+      <c r="B13" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>8-9:26:12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>8-9:26:13</v>
+      </c>
+      <c r="B15" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>8-9:26:14</v>
+      </c>
+      <c r="B16" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>8-9:27:15</v>
+      </c>
+      <c r="B17" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>8-9:27:16</v>
+      </c>
+      <c r="B18" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>8-9:27:17</v>
+      </c>
+      <c r="B19" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>8-9:27:18</v>
+      </c>
+      <c r="B20" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>8-9:29:19</v>
+      </c>
+      <c r="B21" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8-9:33:20</v>
+      </c>
+      <c r="B22" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8-9:33:21</v>
+      </c>
+      <c r="B23" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8-9:33:22</v>
+      </c>
+      <c r="B24" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8-9:33:23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8-9:33:24</v>
+      </c>
+      <c r="B26" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8-9:33:25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8-9:33:26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8-9:33:27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8-9:35:28</v>
+      </c>
+      <c r="B30" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8-9:35:29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8-9:35:31</v>
+      </c>
+      <c r="B33" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8-9:35:32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8-9:35:33</v>
+      </c>
+      <c r="B35" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B36" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8-9:4:35</v>
+      </c>
+      <c r="B37" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8-9:4:36</v>
+      </c>
+      <c r="B38" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8-9:9:37</v>
+      </c>
+      <c r="B39" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8-9:9:38</v>
+      </c>
+      <c r="B40" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B41" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8-9:6:40</v>
+      </c>
+      <c r="B42" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8-9:7:41</v>
+      </c>
+      <c r="B43" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B44" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8-9:7:43</v>
+      </c>
+      <c r="B45" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8-9:17:44</v>
+      </c>
+      <c r="B46" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8-9:17:45</v>
+      </c>
+      <c r="B47" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8-9:17:46</v>
+      </c>
+      <c r="B48" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8-9:17:47</v>
+      </c>
+      <c r="B49" t="str">
+        <v>HumanObservation</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B49"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,45 +827,550 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>verbatimCoordinates</v>
+        <v>eventDate</v>
       </c>
       <c r="C1" t="str">
-        <v>decimalLatitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>decimalLongitude</v>
-      </c>
-      <c r="E1" t="str">
-        <v>verbatimSRS</v>
+        <v>eventRemarks</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:22:0</v>
       </c>
       <c r="B2" t="str">
-        <v>8 1 1</v>
+        <v/>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v>NAD27</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8-9:22:1</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>8-9:23:2</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>8-9:23:3</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>8-9:23:4</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>8-9:23:5</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>8-9:26:6</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8-9:26:7</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>8-9:26:8</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>8-9:26:9</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>8-9:26:10</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>8-9:26:11</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>8-9:26:12</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>8-9:26:13</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>8-9:26:14</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>8-9:27:15</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>8-9:27:16</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>8-9:27:17</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>8-9:27:18</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>8-9:29:19</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8-9:33:20</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8-9:33:21</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8-9:33:22</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8-9:33:23</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8-9:33:24</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8-9:33:25</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8-9:33:26</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8-9:33:27</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8-9:35:28</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8-9:35:29</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8-9:35:31</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8-9:35:32</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8-9:35:33</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8-9:4:35</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8-9:4:36</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8-9:9:37</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8-9:9:38</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8-9:6:40</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8-9:7:41</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8-9:7:43</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8-9:17:44</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8-9:17:45</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8-9:17:46</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8-9:17:47</v>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C49"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,517 +1380,844 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>occurrenceID</v>
+        <v>verbatimCoordinates</v>
       </c>
       <c r="C1" t="str">
-        <v>individualCount</v>
+        <v>decimalLatitude</v>
       </c>
       <c r="D1" t="str">
-        <v>sex</v>
+        <v>decimalLongitude</v>
       </c>
       <c r="E1" t="str">
-        <v>lifeStage</v>
-      </c>
-      <c r="F1" t="str">
-        <v>taxonID</v>
-      </c>
-      <c r="G1" t="str">
-        <v>occurrenceRemarks</v>
+        <v>verbatimSRS</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:22:0</v>
       </c>
       <c r="B2" t="str">
-        <v>SA-1:BISID-1:0:0:1</v>
+        <v>49.88690360 -120.6049292</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>49.88690360</v>
       </c>
       <c r="D2" t="str">
-        <v>male</v>
+        <v>-120.6049292</v>
       </c>
       <c r="E2" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F2" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G2" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:22:1</v>
       </c>
       <c r="B3" t="str">
-        <v>SA-1:BISID-1:0:0:2</v>
+        <v>49.88341145 -120.6089177</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>49.88341145</v>
       </c>
       <c r="D3" t="str">
-        <v>male</v>
+        <v>-120.6089177</v>
       </c>
       <c r="E3" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F3" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G3" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:2</v>
       </c>
       <c r="B4" t="str">
-        <v>SA-1:BISID-1:0:0:3</v>
+        <v>49.44447909 -119.5079154</v>
       </c>
       <c r="C4" t="str">
-        <v>3</v>
+        <v>49.44447909</v>
       </c>
       <c r="D4" t="str">
-        <v>male</v>
+        <v>-119.5079154</v>
       </c>
       <c r="E4" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F4" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G4" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:3</v>
       </c>
       <c r="B5" t="str">
-        <v>SA-1:BISID-1:0:0:4</v>
+        <v>49.45297239 -119.5009683</v>
       </c>
       <c r="C5" t="str">
-        <v>4</v>
+        <v>49.45297239</v>
       </c>
       <c r="D5" t="str">
-        <v>male</v>
+        <v>-119.5009683</v>
       </c>
       <c r="E5" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F5" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G5" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:4</v>
       </c>
       <c r="B6" t="str">
-        <v>SA-1:BISID-1:0:0:5</v>
+        <v>49.45421652 -119.4848064</v>
       </c>
       <c r="C6" t="str">
-        <v>5</v>
+        <v>49.45421652</v>
       </c>
       <c r="D6" t="str">
-        <v>male</v>
+        <v>-119.4848064</v>
       </c>
       <c r="E6" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F6" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G6" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:5</v>
       </c>
       <c r="B7" t="str">
-        <v>SA-1:BISID-1:0:0:6</v>
+        <v>49.44228899 -119.4929046</v>
       </c>
       <c r="C7" t="str">
-        <v>6</v>
+        <v>49.44228899</v>
       </c>
       <c r="D7" t="str">
-        <v>male</v>
+        <v>-119.4929046</v>
       </c>
       <c r="E7" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F7" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G7" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:6</v>
       </c>
       <c r="B8" t="str">
-        <v>SA-1:BISID-1:0:0:7</v>
+        <v>49.44603335 -119.4948300</v>
       </c>
       <c r="C8" t="str">
-        <v>7</v>
+        <v>49.44603335</v>
       </c>
       <c r="D8" t="str">
-        <v>male</v>
+        <v>-119.4948300</v>
       </c>
       <c r="E8" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F8" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G8" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:7</v>
       </c>
       <c r="B9" t="str">
-        <v>SA-1:BISID-1:0:0:8</v>
+        <v>49.44312156 -119.4710999</v>
       </c>
       <c r="C9" t="str">
-        <v>8</v>
+        <v>49.44312156</v>
       </c>
       <c r="D9" t="str">
-        <v>male</v>
+        <v>-119.4710999</v>
       </c>
       <c r="E9" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F9" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G9" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:8</v>
       </c>
       <c r="B10" t="str">
-        <v>SA-1:BISID-1:0:0:9</v>
+        <v>49.46408219 -119.3939225</v>
       </c>
       <c r="C10" t="str">
-        <v>9</v>
+        <v>49.46408219</v>
       </c>
       <c r="D10" t="str">
-        <v>male</v>
+        <v>-119.3939225</v>
       </c>
       <c r="E10" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F10" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G10" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:9</v>
       </c>
       <c r="B11" t="str">
-        <v>SA-1:BISID-1:0:0:10</v>
+        <v>49.44963279 -119.4556690</v>
       </c>
       <c r="C11" t="str">
-        <v>10</v>
+        <v>49.44963279</v>
       </c>
       <c r="D11" t="str">
-        <v>male</v>
+        <v>-119.4556690</v>
       </c>
       <c r="E11" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F11" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G11" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:10</v>
       </c>
       <c r="B12" t="str">
-        <v>SA-1:BISID-1:0:0:11</v>
+        <v>49.43561733 -119.4248822</v>
       </c>
       <c r="C12" t="str">
-        <v>11</v>
+        <v>49.43561733</v>
       </c>
       <c r="D12" t="str">
-        <v>male</v>
+        <v>-119.4248822</v>
       </c>
       <c r="E12" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F12" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G12" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:11</v>
       </c>
       <c r="B13" t="str">
-        <v>SA-1:BISID-1:0:0:12</v>
+        <v>49.42855541 -119.4241269</v>
       </c>
       <c r="C13" t="str">
-        <v>12</v>
+        <v>49.42855541</v>
       </c>
       <c r="D13" t="str">
-        <v>male</v>
+        <v>-119.4241269</v>
       </c>
       <c r="E13" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F13" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G13" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:12</v>
       </c>
       <c r="B14" t="str">
-        <v>SA-1:BISID-1:0:0:13</v>
+        <v>49.42434115 -119.4323231</v>
       </c>
       <c r="C14" t="str">
-        <v>13</v>
+        <v>49.42434115</v>
       </c>
       <c r="D14" t="str">
-        <v>male</v>
+        <v>-119.4323231</v>
       </c>
       <c r="E14" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F14" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G14" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:13</v>
       </c>
       <c r="B15" t="str">
-        <v>SA-1:BISID-1:0:0:14</v>
+        <v>49.46245828 -119.4367907</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>49.46245828</v>
       </c>
       <c r="D15" t="str">
-        <v>male</v>
+        <v>-119.4367907</v>
       </c>
       <c r="E15" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F15" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G15" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:14</v>
       </c>
       <c r="B16" t="str">
-        <v>SA-1:BISID-1:0:0:15</v>
+        <v>49.50146548 -119.4952853</v>
       </c>
       <c r="C16" t="str">
-        <v>15</v>
+        <v>49.50146548</v>
       </c>
       <c r="D16" t="str">
-        <v>male</v>
+        <v>-119.4952853</v>
       </c>
       <c r="E16" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F16" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G16" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:27:15</v>
       </c>
       <c r="B17" t="str">
-        <v>SA-1:BISID-1:0:0:16</v>
+        <v>49.48625383 -119.4976256</v>
       </c>
       <c r="C17" t="str">
-        <v>16</v>
+        <v>49.48625383</v>
       </c>
       <c r="D17" t="str">
-        <v>male</v>
+        <v>-119.4976256</v>
       </c>
       <c r="E17" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F17" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G17" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:27:16</v>
       </c>
       <c r="B18" t="str">
-        <v>SA-1:BISID-1:0:0:17</v>
+        <v>49.48611679 -119.4991279</v>
       </c>
       <c r="C18" t="str">
-        <v>17</v>
+        <v>49.48611679</v>
       </c>
       <c r="D18" t="str">
-        <v>female</v>
+        <v>-119.4991279</v>
       </c>
       <c r="E18" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F18" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G18" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:27:17</v>
       </c>
       <c r="B19" t="str">
-        <v>SA-1:BISID-1:0:0:18</v>
+        <v>49.50290130 -119.4895432</v>
       </c>
       <c r="C19" t="str">
-        <v>18</v>
+        <v>49.50290130</v>
       </c>
       <c r="D19" t="str">
-        <v>unknown</v>
+        <v>-119.4895432</v>
       </c>
       <c r="E19" t="str">
-        <v>juvenile</v>
-      </c>
-      <c r="F19" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G19" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:27:18</v>
       </c>
       <c r="B20" t="str">
-        <v>SA-1:BISID-1:0:0:19</v>
+        <v>49.67802591 -119.5749413</v>
       </c>
       <c r="C20" t="str">
-        <v>19</v>
+        <v>49.67802591</v>
       </c>
       <c r="D20" t="str">
-        <v>unknown</v>
+        <v>-119.5749413</v>
       </c>
       <c r="E20" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F20" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G20" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:29:19</v>
       </c>
       <c r="B21" t="str">
-        <v>SA-1:BISID-1:0:0:20</v>
+        <v>49.71282673 -119.5694866</v>
       </c>
       <c r="C21" t="str">
-        <v>20</v>
+        <v>49.71282673</v>
       </c>
       <c r="D21" t="str">
-        <v>unknown</v>
+        <v>-119.5694866</v>
       </c>
       <c r="E21" t="str">
-        <v>yearling</v>
-      </c>
-      <c r="F21" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G21" t="str">
-        <v>coments son</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:33:20</v>
       </c>
       <c r="B22" t="str">
-        <v>SA-1:BISID-1:0:0:21</v>
+        <v>49.69001253 -119.5859994</v>
       </c>
       <c r="C22" t="str">
-        <v>21</v>
+        <v>49.69001253</v>
       </c>
       <c r="D22" t="str">
-        <v>unknown</v>
+        <v>-119.5859994</v>
       </c>
       <c r="E22" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F22" t="str">
-        <v>S-ELK</v>
-      </c>
-      <c r="G22" t="str">
-        <v>coments son</v>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8-9:33:21</v>
+      </c>
+      <c r="B23" t="str">
+        <v>49.69567928 -119.5781896</v>
+      </c>
+      <c r="C23" t="str">
+        <v>49.69567928</v>
+      </c>
+      <c r="D23" t="str">
+        <v>-119.5781896</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8-9:33:22</v>
+      </c>
+      <c r="B24" t="str">
+        <v>49.69652711 -119.5744829</v>
+      </c>
+      <c r="C24" t="str">
+        <v>49.69652711</v>
+      </c>
+      <c r="D24" t="str">
+        <v>-119.5744829</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8-9:33:23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>49.68697996 -119.5735206</v>
+      </c>
+      <c r="C25" t="str">
+        <v>49.68697996</v>
+      </c>
+      <c r="D25" t="str">
+        <v>-119.5735206</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8-9:33:24</v>
+      </c>
+      <c r="B26" t="str">
+        <v>49.67312249 -119.5864535</v>
+      </c>
+      <c r="C26" t="str">
+        <v>49.67312249</v>
+      </c>
+      <c r="D26" t="str">
+        <v>-119.5864535</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8-9:33:25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>49.71562210 -119.5641708</v>
+      </c>
+      <c r="C27" t="str">
+        <v>49.71562210</v>
+      </c>
+      <c r="D27" t="str">
+        <v>-119.5641708</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8-9:33:26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>49.74124624 -119.5473060</v>
+      </c>
+      <c r="C28" t="str">
+        <v>49.74124624</v>
+      </c>
+      <c r="D28" t="str">
+        <v>-119.5473060</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8-9:33:27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>49.73807604 -119.5258735</v>
+      </c>
+      <c r="C29" t="str">
+        <v>49.73807604</v>
+      </c>
+      <c r="D29" t="str">
+        <v>-119.5258735</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8-9:35:28</v>
+      </c>
+      <c r="B30" t="str">
+        <v>49.74819216 -119.5192945</v>
+      </c>
+      <c r="C30" t="str">
+        <v>49.74819216</v>
+      </c>
+      <c r="D30" t="str">
+        <v>-119.5192945</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8-9:35:29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>49.74854847 -119.5206544</v>
+      </c>
+      <c r="C31" t="str">
+        <v>49.74854847</v>
+      </c>
+      <c r="D31" t="str">
+        <v>-119.5206544</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>49.70609271 -119.4980729</v>
+      </c>
+      <c r="C32" t="str">
+        <v>49.70609271</v>
+      </c>
+      <c r="D32" t="str">
+        <v>-119.4980729</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8-9:35:31</v>
+      </c>
+      <c r="B33" t="str">
+        <v>49.70797059 -119.5001843</v>
+      </c>
+      <c r="C33" t="str">
+        <v>49.70797059</v>
+      </c>
+      <c r="D33" t="str">
+        <v>-119.5001843</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8-9:35:32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>49.71454410 -119.4990188</v>
+      </c>
+      <c r="C34" t="str">
+        <v>49.71454410</v>
+      </c>
+      <c r="D34" t="str">
+        <v>-119.4990188</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8-9:35:33</v>
+      </c>
+      <c r="B35" t="str">
+        <v>49.73959333 -119.5061235</v>
+      </c>
+      <c r="C35" t="str">
+        <v>49.73959333</v>
+      </c>
+      <c r="D35" t="str">
+        <v>-119.5061235</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B36" t="str">
+        <v>49.74258676 -119.5008545</v>
+      </c>
+      <c r="C36" t="str">
+        <v>49.74258676</v>
+      </c>
+      <c r="D36" t="str">
+        <v>-119.5008545</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8-9:4:35</v>
+      </c>
+      <c r="B37" t="str">
+        <v>49.71377707 -119.4938169</v>
+      </c>
+      <c r="C37" t="str">
+        <v>49.71377707</v>
+      </c>
+      <c r="D37" t="str">
+        <v>-119.4938169</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8-9:4:36</v>
+      </c>
+      <c r="B38" t="str">
+        <v>49.69278317 -119.4973080</v>
+      </c>
+      <c r="C38" t="str">
+        <v>49.69278317</v>
+      </c>
+      <c r="D38" t="str">
+        <v>-119.4973080</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8-9:9:37</v>
+      </c>
+      <c r="B39" t="str">
+        <v>49.66637582 -119.5093333</v>
+      </c>
+      <c r="C39" t="str">
+        <v>49.66637582</v>
+      </c>
+      <c r="D39" t="str">
+        <v>-119.5093333</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8-9:9:38</v>
+      </c>
+      <c r="B40" t="str">
+        <v>49.69266691 -119.5574092</v>
+      </c>
+      <c r="C40" t="str">
+        <v>49.69266691</v>
+      </c>
+      <c r="D40" t="str">
+        <v>-119.5574092</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B41" t="str">
+        <v>49.69497504 -119.5560049</v>
+      </c>
+      <c r="C41" t="str">
+        <v>49.69497504</v>
+      </c>
+      <c r="D41" t="str">
+        <v>-119.5560049</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8-9:6:40</v>
+      </c>
+      <c r="B42" t="str">
+        <v>49.71338673 -119.5149178</v>
+      </c>
+      <c r="C42" t="str">
+        <v>49.71338673</v>
+      </c>
+      <c r="D42" t="str">
+        <v>-119.5149178</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8-9:7:41</v>
+      </c>
+      <c r="B43" t="str">
+        <v>49.72651538 -119.5521902</v>
+      </c>
+      <c r="C43" t="str">
+        <v>49.72651538</v>
+      </c>
+      <c r="D43" t="str">
+        <v>-119.5521902</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B44" t="str">
+        <v>49.72890054 -119.5563991</v>
+      </c>
+      <c r="C44" t="str">
+        <v>49.72890054</v>
+      </c>
+      <c r="D44" t="str">
+        <v>-119.5563991</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8-9:7:43</v>
+      </c>
+      <c r="B45" t="str">
+        <v>49.72237648 -119.5406396</v>
+      </c>
+      <c r="C45" t="str">
+        <v>49.72237648</v>
+      </c>
+      <c r="D45" t="str">
+        <v>-119.5406396</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8-9:17:44</v>
+      </c>
+      <c r="B46" t="str">
+        <v>49.70810168 -119.5531134</v>
+      </c>
+      <c r="C46" t="str">
+        <v>49.70810168</v>
+      </c>
+      <c r="D46" t="str">
+        <v>-119.5531134</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8-9:17:45</v>
+      </c>
+      <c r="B47" t="str">
+        <v>49.70501153 -119.5473832</v>
+      </c>
+      <c r="C47" t="str">
+        <v>49.70501153</v>
+      </c>
+      <c r="D47" t="str">
+        <v>-119.5473832</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8-9:17:46</v>
+      </c>
+      <c r="B48" t="str">
+        <v>49.70604510 -119.5454848</v>
+      </c>
+      <c r="C48" t="str">
+        <v>49.70604510</v>
+      </c>
+      <c r="D48" t="str">
+        <v>-119.5454848</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8-9:17:47</v>
+      </c>
+      <c r="B49" t="str">
+        <v>49.72039358 -119.5511457</v>
+      </c>
+      <c r="C49" t="str">
+        <v>49.72039358</v>
+      </c>
+      <c r="D49" t="str">
+        <v>-119.5511457</v>
+      </c>
+      <c r="E49" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E49"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,344 +2227,3550 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>measurementID</v>
+        <v>occurrenceID</v>
       </c>
       <c r="C1" t="str">
-        <v>occurrenceID</v>
+        <v>individualCount</v>
       </c>
       <c r="D1" t="str">
-        <v>measurementType</v>
+        <v>sex</v>
       </c>
       <c r="E1" t="str">
-        <v>measurementUnit</v>
+        <v>lifeStage</v>
       </c>
       <c r="F1" t="str">
-        <v>measurementValue</v>
+        <v>taxonID</v>
+      </c>
+      <c r="G1" t="str">
+        <v>occurrenceRemarks</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:22:0</v>
       </c>
       <c r="B2" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:22:0:13</v>
       </c>
       <c r="C2" t="str">
-        <v>SA-1:BISID-1:0:0:1</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>Antler Configuration</v>
+        <v>male</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>unknown</v>
       </c>
       <c r="F2" t="str">
-        <v>BC RISC Class I</v>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:22:1</v>
       </c>
       <c r="B3" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:22:1:0</v>
       </c>
       <c r="C3" t="str">
-        <v>SA-1:BISID-1:0:0:2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>Antler Configuration</v>
+        <v>male</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>unknown</v>
       </c>
       <c r="F3" t="str">
-        <v>BC RISC Class II</v>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:2</v>
       </c>
       <c r="B4" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:23:2:13</v>
       </c>
       <c r="C4" t="str">
-        <v>SA-1:BISID-1:0:0:3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>Antler Configuration</v>
+        <v>male</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>unknown</v>
       </c>
       <c r="F4" t="str">
-        <v>BC RISC Class III</v>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:3</v>
       </c>
       <c r="B5" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:23:3:13</v>
       </c>
       <c r="C5" t="str">
-        <v>SA-1:BISID-1:0:0:4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>Antler Configuration</v>
+        <v>male</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>unknown</v>
       </c>
       <c r="F5" t="str">
-        <v>BC RISC Class IV</v>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:3</v>
       </c>
       <c r="B6" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:23:3:14</v>
       </c>
       <c r="C6" t="str">
-        <v>SA-1:BISID-1:0:0:5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
-        <v>Antler Configuration</v>
+        <v>female</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F6" t="str">
-        <v>Spike antlers</v>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:4</v>
       </c>
       <c r="B7" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:23:4:14</v>
       </c>
       <c r="C7" t="str">
-        <v>SA-1:BISID-1:0:0:6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
-        <v>Antler Configuration</v>
+        <v>female</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F7" t="str">
-        <v>Raghorn antlers</v>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:5</v>
       </c>
       <c r="B8" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:23:5:13</v>
       </c>
       <c r="C8" t="str">
-        <v>SA-1:BISID-1:0:0:7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="str">
-        <v>Antler Configuration</v>
+        <v>male</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>unknown</v>
       </c>
       <c r="F8" t="str">
-        <v>3 points or fewer</v>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:5</v>
       </c>
       <c r="B9" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:23:5:14</v>
       </c>
       <c r="C9" t="str">
-        <v>SA-1:BISID-1:0:0:8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="str">
-        <v>Antler Configuration</v>
+        <v>female</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F9" t="str">
-        <v>3 or 4 points</v>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:23:5</v>
       </c>
       <c r="B10" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:23:5:15</v>
       </c>
       <c r="C10" t="str">
-        <v>SA-1:BISID-1:0:0:9</v>
+        <v>1</v>
       </c>
       <c r="D10" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>juvenile</v>
       </c>
       <c r="F10" t="str">
-        <v>3 or 4 or 5 points</v>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:6</v>
       </c>
       <c r="B11" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:26:6:14</v>
       </c>
       <c r="C11" t="str">
-        <v>SA-1:BISID-1:0:0:10</v>
+        <v>1</v>
       </c>
       <c r="D11" t="str">
-        <v>Antler Configuration</v>
+        <v>female</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F11" t="str">
-        <v>fewer than 4 points</v>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:6</v>
       </c>
       <c r="B12" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:26:6:15</v>
       </c>
       <c r="C12" t="str">
-        <v>SA-1:BISID-1:0:0:11</v>
+        <v>1</v>
       </c>
       <c r="D12" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>juvenile</v>
       </c>
       <c r="F12" t="str">
-        <v>4 points or more</v>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:7</v>
       </c>
       <c r="B13" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:26:7:13</v>
       </c>
       <c r="C13" t="str">
-        <v>SA-1:BISID-1:0:0:12</v>
+        <v>1</v>
       </c>
       <c r="D13" t="str">
-        <v>Antler Configuration</v>
+        <v>male</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>unknown</v>
       </c>
       <c r="F13" t="str">
-        <v>5 points</v>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:7</v>
       </c>
       <c r="B14" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:26:7:14</v>
       </c>
       <c r="C14" t="str">
-        <v>SA-1:BISID-1:0:0:13</v>
+        <v>1</v>
       </c>
       <c r="D14" t="str">
-        <v>Antler Configuration</v>
+        <v>female</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F14" t="str">
-        <v>5 points or more</v>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:8</v>
       </c>
       <c r="B15" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:26:8:13</v>
       </c>
       <c r="C15" t="str">
-        <v>SA-1:BISID-1:0:0:14</v>
+        <v>1</v>
       </c>
       <c r="D15" t="str">
-        <v>Antler Configuration</v>
+        <v>male</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>unknown</v>
       </c>
       <c r="F15" t="str">
-        <v>6 points or more</v>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:9</v>
       </c>
       <c r="B16" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:26:9:14</v>
       </c>
       <c r="C16" t="str">
-        <v>SA-1:BISID-1:0:0:15</v>
+        <v>1</v>
       </c>
       <c r="D16" t="str">
-        <v>Antler Configuration</v>
+        <v>female</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F16" t="str">
-        <v>unclassified</v>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>SA-1:BISID-1:0:0</v>
+        <v>8-9:26:10</v>
       </c>
       <c r="B17" t="str">
-        <v>SA-1:BISID-1:0:0:antler-configuration</v>
+        <v>8-9:26:10:14</v>
       </c>
       <c r="C17" t="str">
-        <v>SA-1:BISID-1:0:0:16</v>
+        <v>1</v>
       </c>
       <c r="D17" t="str">
-        <v>Antler Configuration</v>
+        <v>female</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F17" t="str">
-        <v>unclassified</v>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>8-9:26:11</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8-9:26:11:13</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>male</v>
+      </c>
+      <c r="E18" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>8-9:26:12</v>
+      </c>
+      <c r="B19" t="str">
+        <v>8-9:26:12:14</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>female</v>
+      </c>
+      <c r="E19" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>8-9:26:12</v>
+      </c>
+      <c r="B20" t="str">
+        <v>8-9:26:12:15</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E20" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>8-9:26:13</v>
+      </c>
+      <c r="B21" t="str">
+        <v>8-9:26:13:14</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <v>female</v>
+      </c>
+      <c r="E21" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8-9:26:13</v>
+      </c>
+      <c r="B22" t="str">
+        <v>8-9:26:13:15</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E22" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8-9:26:14</v>
+      </c>
+      <c r="B23" t="str">
+        <v>8-9:26:14:14</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <v>female</v>
+      </c>
+      <c r="E23" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8-9:26:14</v>
+      </c>
+      <c r="B24" t="str">
+        <v>8-9:26:14:15</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E24" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8-9:27:15</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8-9:27:15:14</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <v>female</v>
+      </c>
+      <c r="E25" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8-9:27:16</v>
+      </c>
+      <c r="B26" t="str">
+        <v>8-9:27:16:14</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1</v>
+      </c>
+      <c r="D26" t="str">
+        <v>female</v>
+      </c>
+      <c r="E26" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8-9:27:16</v>
+      </c>
+      <c r="B27" t="str">
+        <v>8-9:27:16:15</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E27" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8-9:27:17</v>
+      </c>
+      <c r="B28" t="str">
+        <v>8-9:27:17:13</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <v>male</v>
+      </c>
+      <c r="E28" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8-9:27:18</v>
+      </c>
+      <c r="B29" t="str">
+        <v>8-9:27:18:14</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>female</v>
+      </c>
+      <c r="E29" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8-9:27:18</v>
+      </c>
+      <c r="B30" t="str">
+        <v>8-9:27:18:15</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E30" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8-9:29:19</v>
+      </c>
+      <c r="B31" t="str">
+        <v>8-9:29:19:14</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>female</v>
+      </c>
+      <c r="E31" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8-9:33:20</v>
+      </c>
+      <c r="B32" t="str">
+        <v>8-9:33:20:14</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <v>female</v>
+      </c>
+      <c r="E32" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8-9:33:21</v>
+      </c>
+      <c r="B33" t="str">
+        <v>8-9:33:21:14</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>female</v>
+      </c>
+      <c r="E33" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8-9:33:22</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8-9:33:22:14</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>female</v>
+      </c>
+      <c r="E34" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8-9:33:23</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8-9:33:23:14</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>female</v>
+      </c>
+      <c r="E35" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8-9:33:24</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8-9:33:24:14</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>female</v>
+      </c>
+      <c r="E36" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8-9:33:25</v>
+      </c>
+      <c r="B37" t="str">
+        <v>8-9:33:25:14</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1</v>
+      </c>
+      <c r="D37" t="str">
+        <v>female</v>
+      </c>
+      <c r="E37" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8-9:33:26</v>
+      </c>
+      <c r="B38" t="str">
+        <v>8-9:33:26:14</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <v>female</v>
+      </c>
+      <c r="E38" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8-9:33:26</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8-9:33:26:15</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1</v>
+      </c>
+      <c r="D39" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E39" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8-9:33:27</v>
+      </c>
+      <c r="B40" t="str">
+        <v>8-9:33:27:14</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <v>female</v>
+      </c>
+      <c r="E40" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8-9:35:28</v>
+      </c>
+      <c r="B41" t="str">
+        <v>8-9:35:28:14</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <v>female</v>
+      </c>
+      <c r="E41" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8-9:35:29</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8-9:35:29:14</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <v>female</v>
+      </c>
+      <c r="E42" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8-9:35:29</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8-9:35:29:15</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E43" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B44" t="str">
+        <v>8-9:35:30:0</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <v>male</v>
+      </c>
+      <c r="E44" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8-9:35:30:14</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1</v>
+      </c>
+      <c r="D45" t="str">
+        <v>female</v>
+      </c>
+      <c r="E45" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8-9:35:31</v>
+      </c>
+      <c r="B46" t="str">
+        <v>8-9:35:31:14</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <v>female</v>
+      </c>
+      <c r="E46" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8-9:35:31</v>
+      </c>
+      <c r="B47" t="str">
+        <v>8-9:35:31:15</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E47" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8-9:35:32</v>
+      </c>
+      <c r="B48" t="str">
+        <v>8-9:35:32:14</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1</v>
+      </c>
+      <c r="D48" t="str">
+        <v>female</v>
+      </c>
+      <c r="E48" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8-9:35:32</v>
+      </c>
+      <c r="B49" t="str">
+        <v>8-9:35:32:15</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1</v>
+      </c>
+      <c r="D49" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E49" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8-9:35:33</v>
+      </c>
+      <c r="B50" t="str">
+        <v>8-9:35:33:14</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1</v>
+      </c>
+      <c r="D50" t="str">
+        <v>female</v>
+      </c>
+      <c r="E50" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B51" t="str">
+        <v>8-9:28:34:13</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2</v>
+      </c>
+      <c r="D51" t="str">
+        <v>male</v>
+      </c>
+      <c r="E51" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B52" t="str">
+        <v>8-9:28:34:14</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1</v>
+      </c>
+      <c r="D52" t="str">
+        <v>female</v>
+      </c>
+      <c r="E52" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8-9:4:35</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8-9:4:35:14</v>
+      </c>
+      <c r="C53" t="str">
+        <v>1</v>
+      </c>
+      <c r="D53" t="str">
+        <v>female</v>
+      </c>
+      <c r="E53" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8-9:4:36</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8-9:4:36:14</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>female</v>
+      </c>
+      <c r="E54" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8-9:9:37</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8-9:9:37:14</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2</v>
+      </c>
+      <c r="D55" t="str">
+        <v>female</v>
+      </c>
+      <c r="E55" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8-9:9:38</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8-9:9:38:14</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>female</v>
+      </c>
+      <c r="E56" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B57" t="str">
+        <v>8-9:9:39:13</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1</v>
+      </c>
+      <c r="D57" t="str">
+        <v>male</v>
+      </c>
+      <c r="E57" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B58" t="str">
+        <v>8-9:9:39:14</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1</v>
+      </c>
+      <c r="D58" t="str">
+        <v>female</v>
+      </c>
+      <c r="E58" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8-9:6:40</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8-9:6:40:14</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1</v>
+      </c>
+      <c r="D59" t="str">
+        <v>female</v>
+      </c>
+      <c r="E59" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8-9:7:41</v>
+      </c>
+      <c r="B60" t="str">
+        <v>8-9:7:41:14</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1</v>
+      </c>
+      <c r="D60" t="str">
+        <v>female</v>
+      </c>
+      <c r="E60" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B61" t="str">
+        <v>8-9:7:42:13</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <v>male</v>
+      </c>
+      <c r="E61" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B62" t="str">
+        <v>8-9:7:42:14</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2</v>
+      </c>
+      <c r="D62" t="str">
+        <v>female</v>
+      </c>
+      <c r="E62" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8-9:7:43</v>
+      </c>
+      <c r="B63" t="str">
+        <v>8-9:7:43:14</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1</v>
+      </c>
+      <c r="D63" t="str">
+        <v>female</v>
+      </c>
+      <c r="E63" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8-9:7:43</v>
+      </c>
+      <c r="B64" t="str">
+        <v>8-9:7:43:15</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1</v>
+      </c>
+      <c r="D64" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E64" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8-9:17:44</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8-9:17:44:14</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1</v>
+      </c>
+      <c r="D65" t="str">
+        <v>female</v>
+      </c>
+      <c r="E65" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8-9:17:45</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8-9:17:45:14</v>
+      </c>
+      <c r="C66" t="str">
+        <v>1</v>
+      </c>
+      <c r="D66" t="str">
+        <v>female</v>
+      </c>
+      <c r="E66" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8-9:17:45</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8-9:17:45:15</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E67" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8-9:17:46</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8-9:17:46:13</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1</v>
+      </c>
+      <c r="D68" t="str">
+        <v>male</v>
+      </c>
+      <c r="E68" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8-9:17:47</v>
+      </c>
+      <c r="B69" t="str">
+        <v>8-9:17:47:14</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2</v>
+      </c>
+      <c r="D69" t="str">
+        <v>female</v>
+      </c>
+      <c r="E69" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F69" t="str">
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G69"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>eventID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>measurementID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>measurementType</v>
+      </c>
+      <c r="D1" t="str">
+        <v>measurementUnit</v>
+      </c>
+      <c r="E1" t="str">
+        <v>measurementValue</v>
+      </c>
+      <c r="F1" t="str">
+        <v>occurrenceID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>8-9:22:0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>8-9:22:0:study-area</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8-9:22:0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8-9:22:0:block-id/su-id</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>8-9:22:0</v>
+      </c>
+      <c r="B4" t="str">
+        <v>8-9:22:0:antler-configuration</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F4" t="str">
+        <v>8-9:22:0:13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>8-9:22:1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8-9:22:1:study-area</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>8-9:22:1</v>
+      </c>
+      <c r="B6" t="str">
+        <v>8-9:22:1:block-id/su-id</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>8-9:22:1</v>
+      </c>
+      <c r="B7" t="str">
+        <v>8-9:22:1:antler-configuration</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>Spike/Fork</v>
+      </c>
+      <c r="F7" t="str">
+        <v>8-9:22:1:0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>8-9:23:2</v>
+      </c>
+      <c r="B8" t="str">
+        <v>8-9:23:2:study-area</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8-9:23:2</v>
+      </c>
+      <c r="B9" t="str">
+        <v>8-9:23:2:block-id/su-id</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>8-9:23:2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>8-9:23:2:antler-configuration</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F10" t="str">
+        <v>8-9:23:2:13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>8-9:23:3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>8-9:23:3:study-area</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>8-9:23:3</v>
+      </c>
+      <c r="B12" t="str">
+        <v>8-9:23:3:block-id/su-id</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>8-9:23:3</v>
+      </c>
+      <c r="B13" t="str">
+        <v>8-9:23:3:antler-configuration</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F13" t="str">
+        <v>8-9:23:3:13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>8-9:23:4</v>
+      </c>
+      <c r="B14" t="str">
+        <v>8-9:23:4:study-area</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>8-9:23:4</v>
+      </c>
+      <c r="B15" t="str">
+        <v>8-9:23:4:block-id/su-id</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>8-9:23:5</v>
+      </c>
+      <c r="B16" t="str">
+        <v>8-9:23:5:study-area</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>8-9:23:5</v>
+      </c>
+      <c r="B17" t="str">
+        <v>8-9:23:5:block-id/su-id</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>8-9:23:5</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8-9:23:5:antler-configuration</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F18" t="str">
+        <v>8-9:23:5:13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>8-9:26:6</v>
+      </c>
+      <c r="B19" t="str">
+        <v>8-9:26:6:study-area</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>8-9:26:6</v>
+      </c>
+      <c r="B20" t="str">
+        <v>8-9:26:6:block-id/su-id</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>8-9:26:7</v>
+      </c>
+      <c r="B21" t="str">
+        <v>8-9:26:7:study-area</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>8-9:26:7</v>
+      </c>
+      <c r="B22" t="str">
+        <v>8-9:26:7:block-id/su-id</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8-9:26:7</v>
+      </c>
+      <c r="B23" t="str">
+        <v>8-9:26:7:antler-configuration</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F23" t="str">
+        <v>8-9:26:7:13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8-9:26:8</v>
+      </c>
+      <c r="B24" t="str">
+        <v>8-9:26:8:study-area</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8-9:26:8</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8-9:26:8:block-id/su-id</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8-9:26:8</v>
+      </c>
+      <c r="B26" t="str">
+        <v>8-9:26:8:antler-configuration</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F26" t="str">
+        <v>8-9:26:8:13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>8-9:26:9</v>
+      </c>
+      <c r="B27" t="str">
+        <v>8-9:26:9:study-area</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8-9:26:9</v>
+      </c>
+      <c r="B28" t="str">
+        <v>8-9:26:9:block-id/su-id</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8-9:26:10</v>
+      </c>
+      <c r="B29" t="str">
+        <v>8-9:26:10:study-area</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8-9:26:10</v>
+      </c>
+      <c r="B30" t="str">
+        <v>8-9:26:10:block-id/su-id</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8-9:26:11</v>
+      </c>
+      <c r="B31" t="str">
+        <v>8-9:26:11:study-area</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8-9:26:11</v>
+      </c>
+      <c r="B32" t="str">
+        <v>8-9:26:11:block-id/su-id</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8-9:26:11</v>
+      </c>
+      <c r="B33" t="str">
+        <v>8-9:26:11:antler-configuration</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F33" t="str">
+        <v>8-9:26:11:13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8-9:26:12</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8-9:26:12:study-area</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8-9:26:12</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8-9:26:12:block-id/su-id</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8-9:26:13</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8-9:26:13:study-area</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8-9:26:13</v>
+      </c>
+      <c r="B37" t="str">
+        <v>8-9:26:13:block-id/su-id</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8-9:26:14</v>
+      </c>
+      <c r="B38" t="str">
+        <v>8-9:26:14:study-area</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8-9:26:14</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8-9:26:14:block-id/su-id</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8-9:27:15</v>
+      </c>
+      <c r="B40" t="str">
+        <v>8-9:27:15:study-area</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8-9:27:15</v>
+      </c>
+      <c r="B41" t="str">
+        <v>8-9:27:15:block-id/su-id</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8-9:27:16</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8-9:27:16:study-area</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8-9:27:16</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8-9:27:16:block-id/su-id</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8-9:27:17</v>
+      </c>
+      <c r="B44" t="str">
+        <v>8-9:27:17:study-area</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8-9:27:17</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8-9:27:17:block-id/su-id</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8-9:27:17</v>
+      </c>
+      <c r="B46" t="str">
+        <v>8-9:27:17:antler-configuration</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F46" t="str">
+        <v>8-9:27:17:13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8-9:27:18</v>
+      </c>
+      <c r="B47" t="str">
+        <v>8-9:27:18:study-area</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8-9:27:18</v>
+      </c>
+      <c r="B48" t="str">
+        <v>8-9:27:18:block-id/su-id</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8-9:29:19</v>
+      </c>
+      <c r="B49" t="str">
+        <v>8-9:29:19:study-area</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8-9:29:19</v>
+      </c>
+      <c r="B50" t="str">
+        <v>8-9:29:19:block-id/su-id</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8-9:33:20</v>
+      </c>
+      <c r="B51" t="str">
+        <v>8-9:33:20:study-area</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8-9:33:20</v>
+      </c>
+      <c r="B52" t="str">
+        <v>8-9:33:20:block-id/su-id</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>8-9:33:21</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8-9:33:21:study-area</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8-9:33:21</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8-9:33:21:block-id/su-id</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>8-9:33:22</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8-9:33:22:study-area</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8-9:33:22</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8-9:33:22:block-id/su-id</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8-9:33:23</v>
+      </c>
+      <c r="B57" t="str">
+        <v>8-9:33:23:study-area</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>8-9:33:23</v>
+      </c>
+      <c r="B58" t="str">
+        <v>8-9:33:23:block-id/su-id</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>8-9:33:24</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8-9:33:24:study-area</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>8-9:33:24</v>
+      </c>
+      <c r="B60" t="str">
+        <v>8-9:33:24:block-id/su-id</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>8-9:33:25</v>
+      </c>
+      <c r="B61" t="str">
+        <v>8-9:33:25:study-area</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8-9:33:25</v>
+      </c>
+      <c r="B62" t="str">
+        <v>8-9:33:25:block-id/su-id</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8-9:33:26</v>
+      </c>
+      <c r="B63" t="str">
+        <v>8-9:33:26:study-area</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8-9:33:26</v>
+      </c>
+      <c r="B64" t="str">
+        <v>8-9:33:26:block-id/su-id</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>8-9:33:27</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8-9:33:27:study-area</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8-9:33:27</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8-9:33:27:block-id/su-id</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8-9:35:28</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8-9:35:28:study-area</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8-9:35:28</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8-9:35:28:block-id/su-id</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8-9:35:29</v>
+      </c>
+      <c r="B69" t="str">
+        <v>8-9:35:29:study-area</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8-9:35:29</v>
+      </c>
+      <c r="B70" t="str">
+        <v>8-9:35:29:block-id/su-id</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D70" t="str">
+        <v/>
+      </c>
+      <c r="E70" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B71" t="str">
+        <v>8-9:35:30:study-area</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D71" t="str">
+        <v/>
+      </c>
+      <c r="E71" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B72" t="str">
+        <v>8-9:35:30:block-id/su-id</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D72" t="str">
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8-9:35:30</v>
+      </c>
+      <c r="B73" t="str">
+        <v>8-9:35:30:antler-configuration</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D73" t="str">
+        <v/>
+      </c>
+      <c r="E73" t="str">
+        <v>Spike/Fork</v>
+      </c>
+      <c r="F73" t="str">
+        <v>8-9:35:30:0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>8-9:35:31</v>
+      </c>
+      <c r="B74" t="str">
+        <v>8-9:35:31:study-area</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D74" t="str">
+        <v/>
+      </c>
+      <c r="E74" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>8-9:35:31</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8-9:35:31:block-id/su-id</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D75" t="str">
+        <v/>
+      </c>
+      <c r="E75" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>8-9:35:32</v>
+      </c>
+      <c r="B76" t="str">
+        <v>8-9:35:32:study-area</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D76" t="str">
+        <v/>
+      </c>
+      <c r="E76" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>8-9:35:32</v>
+      </c>
+      <c r="B77" t="str">
+        <v>8-9:35:32:block-id/su-id</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8-9:35:33</v>
+      </c>
+      <c r="B78" t="str">
+        <v>8-9:35:33:study-area</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D78" t="str">
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>8-9:35:33</v>
+      </c>
+      <c r="B79" t="str">
+        <v>8-9:35:33:block-id/su-id</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D79" t="str">
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8-9:28:34:study-area</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D80" t="str">
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B81" t="str">
+        <v>8-9:28:34:block-id/su-id</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D81" t="str">
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>8-9:28:34</v>
+      </c>
+      <c r="B82" t="str">
+        <v>8-9:28:34:antler-configuration</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D82" t="str">
+        <v/>
+      </c>
+      <c r="E82" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F82" t="str">
+        <v>8-9:28:34:13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>8-9:4:35</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8-9:4:35:study-area</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D83" t="str">
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>8-9:4:35</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8-9:4:35:block-id/su-id</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D84" t="str">
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>8-9:4:36</v>
+      </c>
+      <c r="B85" t="str">
+        <v>8-9:4:36:study-area</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D85" t="str">
+        <v/>
+      </c>
+      <c r="E85" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>8-9:4:36</v>
+      </c>
+      <c r="B86" t="str">
+        <v>8-9:4:36:block-id/su-id</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D86" t="str">
+        <v/>
+      </c>
+      <c r="E86" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>8-9:9:37</v>
+      </c>
+      <c r="B87" t="str">
+        <v>8-9:9:37:study-area</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D87" t="str">
+        <v/>
+      </c>
+      <c r="E87" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>8-9:9:37</v>
+      </c>
+      <c r="B88" t="str">
+        <v>8-9:9:37:block-id/su-id</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D88" t="str">
+        <v/>
+      </c>
+      <c r="E88" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>8-9:9:38</v>
+      </c>
+      <c r="B89" t="str">
+        <v>8-9:9:38:study-area</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D89" t="str">
+        <v/>
+      </c>
+      <c r="E89" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>8-9:9:38</v>
+      </c>
+      <c r="B90" t="str">
+        <v>8-9:9:38:block-id/su-id</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D90" t="str">
+        <v/>
+      </c>
+      <c r="E90" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B91" t="str">
+        <v>8-9:9:39:study-area</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D91" t="str">
+        <v/>
+      </c>
+      <c r="E91" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B92" t="str">
+        <v>8-9:9:39:block-id/su-id</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D92" t="str">
+        <v/>
+      </c>
+      <c r="E92" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>8-9:9:39</v>
+      </c>
+      <c r="B93" t="str">
+        <v>8-9:9:39:antler-configuration</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D93" t="str">
+        <v/>
+      </c>
+      <c r="E93" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F93" t="str">
+        <v>8-9:9:39:13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>8-9:6:40</v>
+      </c>
+      <c r="B94" t="str">
+        <v>8-9:6:40:study-area</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D94" t="str">
+        <v/>
+      </c>
+      <c r="E94" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>8-9:6:40</v>
+      </c>
+      <c r="B95" t="str">
+        <v>8-9:6:40:block-id/su-id</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D95" t="str">
+        <v/>
+      </c>
+      <c r="E95" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>8-9:7:41</v>
+      </c>
+      <c r="B96" t="str">
+        <v>8-9:7:41:study-area</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D96" t="str">
+        <v/>
+      </c>
+      <c r="E96" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>8-9:7:41</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8-9:7:41:block-id/su-id</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D97" t="str">
+        <v/>
+      </c>
+      <c r="E97" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B98" t="str">
+        <v>8-9:7:42:study-area</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D98" t="str">
+        <v/>
+      </c>
+      <c r="E98" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B99" t="str">
+        <v>8-9:7:42:block-id/su-id</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D99" t="str">
+        <v/>
+      </c>
+      <c r="E99" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>8-9:7:42</v>
+      </c>
+      <c r="B100" t="str">
+        <v>8-9:7:42:antler-configuration</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D100" t="str">
+        <v/>
+      </c>
+      <c r="E100" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F100" t="str">
+        <v>8-9:7:42:13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>8-9:7:43</v>
+      </c>
+      <c r="B101" t="str">
+        <v>8-9:7:43:study-area</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D101" t="str">
+        <v/>
+      </c>
+      <c r="E101" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>8-9:7:43</v>
+      </c>
+      <c r="B102" t="str">
+        <v>8-9:7:43:block-id/su-id</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D102" t="str">
+        <v/>
+      </c>
+      <c r="E102" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>8-9:17:44</v>
+      </c>
+      <c r="B103" t="str">
+        <v>8-9:17:44:study-area</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D103" t="str">
+        <v/>
+      </c>
+      <c r="E103" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>8-9:17:44</v>
+      </c>
+      <c r="B104" t="str">
+        <v>8-9:17:44:block-id/su-id</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D104" t="str">
+        <v/>
+      </c>
+      <c r="E104" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>8-9:17:45</v>
+      </c>
+      <c r="B105" t="str">
+        <v>8-9:17:45:study-area</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D105" t="str">
+        <v/>
+      </c>
+      <c r="E105" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>8-9:17:45</v>
+      </c>
+      <c r="B106" t="str">
+        <v>8-9:17:45:block-id/su-id</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D106" t="str">
+        <v/>
+      </c>
+      <c r="E106" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>8-9:17:46</v>
+      </c>
+      <c r="B107" t="str">
+        <v>8-9:17:46:study-area</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D107" t="str">
+        <v/>
+      </c>
+      <c r="E107" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>8-9:17:46</v>
+      </c>
+      <c r="B108" t="str">
+        <v>8-9:17:46:block-id/su-id</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D108" t="str">
+        <v/>
+      </c>
+      <c r="E108" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>8-9:17:46</v>
+      </c>
+      <c r="B109" t="str">
+        <v>8-9:17:46:antler-configuration</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D109" t="str">
+        <v/>
+      </c>
+      <c r="E109" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="F109" t="str">
+        <v>8-9:17:46:13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>8-9:17:47</v>
+      </c>
+      <c r="B110" t="str">
+        <v>8-9:17:47:study-area</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D110" t="str">
+        <v/>
+      </c>
+      <c r="E110" t="str">
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>8-9:17:47</v>
+      </c>
+      <c r="B111" t="str">
+        <v>8-9:17:47:block-id/su-id</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D111" t="str">
+        <v/>
+      </c>
+      <c r="E111" t="str">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F111"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
+++ b/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,9 +451,6 @@
       <c r="B1" t="str">
         <v>eventDate</v>
       </c>
-      <c r="C1" t="str">
-        <v>eventRemarks</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -462,13 +459,10 @@
       <c r="B2" t="str">
         <v>31/Jan/16</v>
       </c>
-      <c r="C2" t="str">
-        <v>have an observation</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -583,7 +577,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -664,19 +658,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B5" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
+        <v>MU 749:Lowland:1:0:sign-type</v>
       </c>
       <c r="C5" t="str">
-        <v>Antler Configuration</v>
+        <v>Sign Type</v>
       </c>
       <c r="D5" t="str">
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>Spike/Fork</v>
-      </c>
-      <c r="F5" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>Bed</v>
       </c>
     </row>
     <row r="6">
@@ -684,19 +675,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B6" t="str">
-        <v>MU 749:Lowland:1:0:sign-type</v>
+        <v>MU 749:Lowland:1:0:sign-count</v>
       </c>
       <c r="C6" t="str">
-        <v>Sign Type</v>
+        <v>Sign Count</v>
       </c>
       <c r="D6" t="str">
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>Bed</v>
-      </c>
-      <c r="F6" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -704,19 +692,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B7" t="str">
-        <v>MU 749:Lowland:1:0:sign-count</v>
+        <v>MU 749:Lowland:1:0:age-of-sign</v>
       </c>
       <c r="C7" t="str">
-        <v>Sign Count</v>
+        <v>Age of Sign</v>
       </c>
       <c r="D7" t="str">
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>Old</v>
       </c>
     </row>
     <row r="8">
@@ -724,19 +709,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B8" t="str">
-        <v>MU 749:Lowland:1:0:age-of-sign</v>
+        <v>MU 749:Lowland:1:0:veg-cover</v>
       </c>
       <c r="C8" t="str">
-        <v>Age of Sign</v>
+        <v>Veg Cover</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>%</v>
       </c>
       <c r="E8" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F8" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -744,19 +726,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B9" t="str">
-        <v>MU 749:Lowland:1:0:veg-cover</v>
+        <v>MU 749:Lowland:1:0:snow-cover</v>
       </c>
       <c r="C9" t="str">
-        <v>Veg Cover</v>
+        <v>Snow Cover</v>
       </c>
       <c r="D9" t="str">
         <v>%</v>
       </c>
       <c r="E9" t="str">
-        <v>2</v>
-      </c>
-      <c r="F9" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -764,19 +743,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B10" t="str">
-        <v>MU 749:Lowland:1:0:snow-cover</v>
+        <v>MU 749:Lowland:1:0:activity</v>
       </c>
       <c r="C10" t="str">
-        <v>Snow Cover</v>
+        <v>Activity</v>
       </c>
       <c r="D10" t="str">
-        <v>%</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>3</v>
-      </c>
-      <c r="F10" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>Bedding</v>
       </c>
     </row>
     <row r="11">
@@ -784,19 +760,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B11" t="str">
-        <v>MU 749:Lowland:1:0:activity</v>
+        <v>MU 749:Lowland:1:0:number-of-marked-animals-observed</v>
       </c>
       <c r="C11" t="str">
-        <v>Activity</v>
+        <v>Number of Marked Animals Observed</v>
       </c>
       <c r="D11" t="str">
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>Bedding</v>
-      </c>
-      <c r="F11" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -804,19 +777,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B12" t="str">
-        <v>MU 749:Lowland:1:0:number-of-marked-animals-observed</v>
+        <v>MU 749:Lowland:1:0:survey-or-telemetry-search</v>
       </c>
       <c r="C12" t="str">
-        <v>Number of Marked Animals Observed</v>
+        <v>Survey or Telemetry Search</v>
       </c>
       <c r="D12" t="str">
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>4</v>
-      </c>
-      <c r="F12" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>Survey</v>
       </c>
     </row>
     <row r="13">
@@ -824,19 +794,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B13" t="str">
-        <v>MU 749:Lowland:1:0:survey-or-telemetry-search</v>
+        <v>MU 749:Lowland:1:0:photos</v>
       </c>
       <c r="C13" t="str">
-        <v>Survey or Telemetry Search</v>
+        <v>Photos</v>
       </c>
       <c r="D13" t="str">
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>Survey</v>
-      </c>
-      <c r="F13" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>some photo id</v>
       </c>
     </row>
     <row r="14">
@@ -844,44 +811,24 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B14" t="str">
-        <v>MU 749:Lowland:1:0:photos</v>
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
       </c>
       <c r="C14" t="str">
-        <v>Photos</v>
+        <v>Antler Configuration</v>
       </c>
       <c r="D14" t="str">
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>some photo id</v>
+        <v>Spike/Fork</v>
       </c>
       <c r="F14" t="str">
         <v>MU 749:Lowland:1:0:0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B15" t="str">
-        <v>MU 749:Lowland:1:0:observation-comments</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Observation Comments</v>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v>have an observation</v>
-      </c>
-      <c r="F15" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
+++ b/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,9 @@
       <c r="B1" t="str">
         <v>eventDate</v>
       </c>
+      <c r="C1" t="str">
+        <v>eventRemarks</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -459,10 +462,13 @@
       <c r="B2" t="str">
         <v>31/Jan/16</v>
       </c>
+      <c r="C2" t="str">
+        <v>some observation comment</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -505,7 +511,7 @@
         <v>-123.488743</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>NAD83</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,9 +547,6 @@
       <c r="F1" t="str">
         <v>taxonID</v>
       </c>
-      <c r="G1" t="str">
-        <v>occurrenceRemarks</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -553,7 +556,7 @@
         <v>MU 749:Lowland:1:0:0</v>
       </c>
       <c r="C2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
         <v>male</v>
@@ -564,20 +567,357 @@
       <c r="F2" t="str">
         <v>M-ALAM</v>
       </c>
-      <c r="G2" t="str">
-        <v>have an observation</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>MU 749:Lowland:1:0:1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>male</v>
+      </c>
+      <c r="E3" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F3" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B4" t="str">
+        <v>MU 749:Lowland:1:0:2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>male</v>
+      </c>
+      <c r="E4" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F4" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>MU 749:Lowland:1:0:3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>male</v>
+      </c>
+      <c r="E5" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F5" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B6" t="str">
+        <v>MU 749:Lowland:1:0:4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>male</v>
+      </c>
+      <c r="E6" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F6" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B7" t="str">
+        <v>MU 749:Lowland:1:0:5</v>
+      </c>
+      <c r="C7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
+        <v>male</v>
+      </c>
+      <c r="E7" t="str">
+        <v>yearling</v>
+      </c>
+      <c r="F7" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B8" t="str">
+        <v>MU 749:Lowland:1:0:6</v>
+      </c>
+      <c r="C8" t="str">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <v>male</v>
+      </c>
+      <c r="E8" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F8" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B9" t="str">
+        <v>MU 749:Lowland:1:0:7</v>
+      </c>
+      <c r="C9" t="str">
+        <v>8</v>
+      </c>
+      <c r="D9" t="str">
+        <v>male</v>
+      </c>
+      <c r="E9" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F9" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B10" t="str">
+        <v>MU 749:Lowland:1:0:8</v>
+      </c>
+      <c r="C10" t="str">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str">
+        <v>male</v>
+      </c>
+      <c r="E10" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F10" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B11" t="str">
+        <v>MU 749:Lowland:1:0:9</v>
+      </c>
+      <c r="C11" t="str">
+        <v>10</v>
+      </c>
+      <c r="D11" t="str">
+        <v>male</v>
+      </c>
+      <c r="E11" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F11" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B12" t="str">
+        <v>MU 749:Lowland:1:0:10</v>
+      </c>
+      <c r="C12" t="str">
+        <v>11</v>
+      </c>
+      <c r="D12" t="str">
+        <v>male</v>
+      </c>
+      <c r="E12" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F12" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B13" t="str">
+        <v>MU 749:Lowland:1:0:11</v>
+      </c>
+      <c r="C13" t="str">
+        <v>12</v>
+      </c>
+      <c r="D13" t="str">
+        <v>male</v>
+      </c>
+      <c r="E13" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F13" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B14" t="str">
+        <v>MU 749:Lowland:1:0:12</v>
+      </c>
+      <c r="C14" t="str">
+        <v>13</v>
+      </c>
+      <c r="D14" t="str">
+        <v>male</v>
+      </c>
+      <c r="E14" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F14" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B15" t="str">
+        <v>MU 749:Lowland:1:0:13</v>
+      </c>
+      <c r="C15" t="str">
+        <v>14</v>
+      </c>
+      <c r="D15" t="str">
+        <v>male</v>
+      </c>
+      <c r="E15" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F15" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B16" t="str">
+        <v>MU 749:Lowland:1:0:14</v>
+      </c>
+      <c r="C16" t="str">
+        <v>15</v>
+      </c>
+      <c r="D16" t="str">
+        <v>female</v>
+      </c>
+      <c r="E16" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F16" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B17" t="str">
+        <v>MU 749:Lowland:1:0:15</v>
+      </c>
+      <c r="C17" t="str">
+        <v>16</v>
+      </c>
+      <c r="D17" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E17" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F17" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B18" t="str">
+        <v>MU 749:Lowland:1:0:16</v>
+      </c>
+      <c r="C18" t="str">
+        <v>17</v>
+      </c>
+      <c r="D18" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E18" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F18" t="str">
+        <v>M-ALAM</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B19" t="str">
+        <v>MU 749:Lowland:1:0:17</v>
+      </c>
+      <c r="C19" t="str">
+        <v>18</v>
+      </c>
+      <c r="D19" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E19" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F19" t="str">
+        <v>M-ALAM</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -599,6 +939,9 @@
         <v>measurementValue</v>
       </c>
       <c r="F1" t="str">
+        <v>organismID</v>
+      </c>
+      <c r="G1" t="str">
         <v>occurrenceID</v>
       </c>
     </row>
@@ -658,16 +1001,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B5" t="str">
-        <v>MU 749:Lowland:1:0:sign-type</v>
+        <v>MU 749:Lowland:1:0:group-label</v>
       </c>
       <c r="C5" t="str">
-        <v>Sign Type</v>
+        <v>Group Label</v>
       </c>
       <c r="D5" t="str">
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>Bed</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -675,16 +1018,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B6" t="str">
-        <v>MU 749:Lowland:1:0:sign-count</v>
+        <v>MU 749:Lowland:1:0:sign-type</v>
       </c>
       <c r="C6" t="str">
-        <v>Sign Count</v>
+        <v>Sign Type</v>
       </c>
       <c r="D6" t="str">
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>Trail</v>
       </c>
     </row>
     <row r="7">
@@ -692,16 +1035,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B7" t="str">
-        <v>MU 749:Lowland:1:0:age-of-sign</v>
+        <v>MU 749:Lowland:1:0:sign-count</v>
       </c>
       <c r="C7" t="str">
-        <v>Age of Sign</v>
+        <v>Sign Count</v>
       </c>
       <c r="D7" t="str">
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>Old</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -709,16 +1052,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B8" t="str">
-        <v>MU 749:Lowland:1:0:veg-cover</v>
+        <v>MU 749:Lowland:1:0:age-of-sign</v>
       </c>
       <c r="C8" t="str">
-        <v>Veg Cover</v>
+        <v>Age of Sign</v>
       </c>
       <c r="D8" t="str">
-        <v>%</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>2</v>
+        <v>Old</v>
       </c>
     </row>
     <row r="9">
@@ -726,16 +1069,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B9" t="str">
-        <v>MU 749:Lowland:1:0:snow-cover</v>
+        <v>MU 749:Lowland:1:0:veg-cover</v>
       </c>
       <c r="C9" t="str">
-        <v>Snow Cover</v>
+        <v>Veg Cover</v>
       </c>
       <c r="D9" t="str">
         <v>%</v>
       </c>
       <c r="E9" t="str">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -743,16 +1086,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B10" t="str">
-        <v>MU 749:Lowland:1:0:activity</v>
+        <v>MU 749:Lowland:1:0:snow-cover</v>
       </c>
       <c r="C10" t="str">
-        <v>Activity</v>
+        <v>Snow Cover</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>%</v>
       </c>
       <c r="E10" t="str">
-        <v>Bedding</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -760,16 +1103,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B11" t="str">
-        <v>MU 749:Lowland:1:0:number-of-marked-animals-observed</v>
+        <v>MU 749:Lowland:1:0:activity</v>
       </c>
       <c r="C11" t="str">
-        <v>Number of Marked Animals Observed</v>
+        <v>Activity</v>
       </c>
       <c r="D11" t="str">
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>4</v>
+        <v>Bedding</v>
       </c>
     </row>
     <row r="12">
@@ -777,16 +1120,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B12" t="str">
-        <v>MU 749:Lowland:1:0:survey-or-telemetry-search</v>
+        <v>MU 749:Lowland:1:0:number-of-marked-animals-observed</v>
       </c>
       <c r="C12" t="str">
-        <v>Survey or Telemetry Search</v>
+        <v>Number of Marked Animals Observed</v>
       </c>
       <c r="D12" t="str">
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>Survey</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +1137,16 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B13" t="str">
-        <v>MU 749:Lowland:1:0:photos</v>
+        <v>MU 749:Lowland:1:0:survey-or-telemetry-search</v>
       </c>
       <c r="C13" t="str">
-        <v>Photos</v>
+        <v>Survey or Telemetry Search</v>
       </c>
       <c r="D13" t="str">
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>some photo id</v>
+        <v>Survey</v>
       </c>
     </row>
     <row r="14">
@@ -811,37 +1154,577 @@
         <v>MU 749:Lowland:1:0</v>
       </c>
       <c r="B14" t="str">
+        <v>MU 749:Lowland:1:0:photos</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Photos</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>some_photo</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B15" t="str">
+        <v>16-00001:MF001:6A7981:0:targeted-or-non-targeted</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Targeted or Non-Targeted</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v>Targeted</v>
+      </c>
+      <c r="F15" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B16" t="str">
+        <v>16-00001:MF001:6A7981:0:wildlife-health-id</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Wildlife Health ID</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v>16-00001</v>
+      </c>
+      <c r="F16" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B17" t="str">
+        <v>16-00001:MF001:6A7981:0:animal-id</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Animal ID</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v>MF001</v>
+      </c>
+      <c r="F17" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B18" t="str">
+        <v>16-00001:MF001:6A7981:0:telemetry-device-id</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Telemetry Device ID</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>6A7981</v>
+      </c>
+      <c r="F18" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B19" t="str">
+        <v>16-00001:MF001:6A7981:0:collar/tag-frequency</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Collar/Tag Frequency</v>
+      </c>
+      <c r="D19" t="str">
+        <v>KHz</v>
+      </c>
+      <c r="E19" t="str">
+        <v>151.002</v>
+      </c>
+      <c r="F19" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B20" t="str">
+        <v>16-00001:MF001:6A7981:0:right-ear-tag-id</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Right Ear Tag ID</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>reti</v>
+      </c>
+      <c r="F20" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B21" t="str">
+        <v>16-00001:MF001:6A7981:0:right-ear-tag-colour</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Right Ear Tag Colour</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v>retc</v>
+      </c>
+      <c r="F21" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B22" t="str">
+        <v>16-00001:MF001:6A7981:0:left-ear-tag-id</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Left Ear Tag ID</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>leti</v>
+      </c>
+      <c r="F22" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B23" t="str">
+        <v>16-00001:MF001:6A7981:0:left-ear-tag-colour</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Left Ear Tag Colour</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v>letc</v>
+      </c>
+      <c r="F23" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B24" t="str">
+        <v>16-00001:MF001:6A7981:0:marked-animals-comments</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Marked Animals Comments</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>marked animals here</v>
+      </c>
+      <c r="F24" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B25" t="str">
         <v>MU 749:Lowland:1:0:antler-configuration</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C25" t="str">
         <v>Antler Configuration</v>
       </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
         <v>Spike/Fork</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G25" t="str">
         <v>MU 749:Lowland:1:0:0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B26" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v>Sub-Prime</v>
+      </c>
+      <c r="G26" t="str">
+        <v>MU 749:Lowland:1:0:1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B27" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v>Prime</v>
+      </c>
+      <c r="G27" t="str">
+        <v>MU 749:Lowland:1:0:2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B28" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v>Senior</v>
+      </c>
+      <c r="G28" t="str">
+        <v>MU 749:Lowland:1:0:3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B29" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v>3 Brow/10 Points</v>
+      </c>
+      <c r="G29" t="str">
+        <v>MU 749:Lowland:1:0:4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B30" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>BC RISC Yearling</v>
+      </c>
+      <c r="G30" t="str">
+        <v>MU 749:Lowland:1:0:5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B31" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v>BC RISC Class I</v>
+      </c>
+      <c r="G31" t="str">
+        <v>MU 749:Lowland:1:0:6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B32" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>BC RISC Class II</v>
+      </c>
+      <c r="G32" t="str">
+        <v>MU 749:Lowland:1:0:7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B33" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v>BC RISC Class III</v>
+      </c>
+      <c r="G33" t="str">
+        <v>MU 749:Lowland:1:0:8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B34" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v>Oswald (1997) Class I</v>
+      </c>
+      <c r="G34" t="str">
+        <v>MU 749:Lowland:1:0:9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B35" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v>Oswald (1997) Class II</v>
+      </c>
+      <c r="G35" t="str">
+        <v>MU 749:Lowland:1:0:10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B36" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>Oswald (1997) Class III</v>
+      </c>
+      <c r="G36" t="str">
+        <v>MU 749:Lowland:1:0:11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B37" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="G37" t="str">
+        <v>MU 749:Lowland:1:0:12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B38" t="str">
+        <v>MU 749:Lowland:1:0:antler-configuration</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Antler Configuration</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v>unclassified</v>
+      </c>
+      <c r="G38" t="str">
+        <v>MU 749:Lowland:1:0:13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B39" t="str">
+        <v>MU 749:Lowland:1:0:cow-w/1-calf</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Cow W/1 calf</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <v>MU 749:Lowland:1:0:14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B40" t="str">
+        <v>MU 749:Lowland:1:0:cow-w/2-calf</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Cow W/2 calf</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <v>MU 749:Lowland:1:0:14</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>eventID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>organismID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>organismRemarks</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>MU 749:Lowland:1:0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>16-00001:MF001:6A7981:0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>marked animals here</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
+++ b/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
@@ -37,15 +37,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="[$-1009]d/mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="hh:mm:ss;@"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -416,7 +415,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>eventID</v>
+        <v>eventId</v>
       </c>
       <c r="B1" t="str">
         <v xml:space="preserve">basisOfRecord </v>
@@ -424,7 +423,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B2" t="str">
         <v>HumanObservation</v>
@@ -457,13 +456,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>31/Jan/16</v>
+        <v>27/Feb/23</v>
       </c>
       <c r="C2" t="str">
-        <v>some observation comment</v>
+        <v>coments son</v>
       </c>
     </row>
   </sheetData>
@@ -499,19 +498,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>59.212853 -123.488743</v>
+        <v>8 1 1</v>
       </c>
       <c r="C2" t="str">
-        <v>59.212853</v>
+        <v>lat</v>
       </c>
       <c r="D2" t="str">
-        <v>-123.488743</v>
+        <v>long</v>
       </c>
       <c r="E2" t="str">
-        <v>NAD83</v>
+        <v>NAD27</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +522,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,374 +549,134 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
+        <v>SA-1:BISID-1:0:16</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2" t="str">
         <v>male</v>
       </c>
       <c r="E2" t="str">
-        <v>unknown</v>
+        <v>adult</v>
       </c>
       <c r="F2" t="str">
-        <v>M-ALAM</v>
+        <v>S-ELK</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B3" t="str">
-        <v>MU 749:Lowland:1:0:1</v>
+        <v>SA-1:BISID-1:0:17</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D3" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="E3" t="str">
-        <v>unknown</v>
+        <v>adult</v>
       </c>
       <c r="F3" t="str">
-        <v>M-ALAM</v>
+        <v>S-ELK</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B4" t="str">
-        <v>MU 749:Lowland:1:0:2</v>
+        <v>SA-1:BISID-1:0:18</v>
       </c>
       <c r="C4" t="str">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D4" t="str">
-        <v>male</v>
+        <v>unknown</v>
       </c>
       <c r="E4" t="str">
-        <v>adult</v>
+        <v>juvenile</v>
       </c>
       <c r="F4" t="str">
-        <v>M-ALAM</v>
+        <v>S-ELK</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B5" t="str">
-        <v>MU 749:Lowland:1:0:3</v>
+        <v>SA-1:BISID-1:0:19</v>
       </c>
       <c r="C5" t="str">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" t="str">
-        <v>male</v>
+        <v>unknown</v>
       </c>
       <c r="E5" t="str">
         <v>adult</v>
       </c>
       <c r="F5" t="str">
-        <v>M-ALAM</v>
+        <v>S-ELK</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B6" t="str">
-        <v>MU 749:Lowland:1:0:4</v>
+        <v>SA-1:BISID-1:0:20</v>
       </c>
       <c r="C6" t="str">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D6" t="str">
-        <v>male</v>
+        <v>unknown</v>
       </c>
       <c r="E6" t="str">
-        <v>adult</v>
+        <v>yearling</v>
       </c>
       <c r="F6" t="str">
-        <v>M-ALAM</v>
+        <v>S-ELK</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B7" t="str">
-        <v>MU 749:Lowland:1:0:5</v>
+        <v>SA-1:BISID-1:0:21</v>
       </c>
       <c r="C7" t="str">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" t="str">
-        <v>male</v>
+        <v>unknown</v>
       </c>
       <c r="E7" t="str">
-        <v>yearling</v>
+        <v>unknown</v>
       </c>
       <c r="F7" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B8" t="str">
-        <v>MU 749:Lowland:1:0:6</v>
-      </c>
-      <c r="C8" t="str">
-        <v>7</v>
-      </c>
-      <c r="D8" t="str">
-        <v>male</v>
-      </c>
-      <c r="E8" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F8" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B9" t="str">
-        <v>MU 749:Lowland:1:0:7</v>
-      </c>
-      <c r="C9" t="str">
-        <v>8</v>
-      </c>
-      <c r="D9" t="str">
-        <v>male</v>
-      </c>
-      <c r="E9" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F9" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B10" t="str">
-        <v>MU 749:Lowland:1:0:8</v>
-      </c>
-      <c r="C10" t="str">
-        <v>9</v>
-      </c>
-      <c r="D10" t="str">
-        <v>male</v>
-      </c>
-      <c r="E10" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F10" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B11" t="str">
-        <v>MU 749:Lowland:1:0:9</v>
-      </c>
-      <c r="C11" t="str">
-        <v>10</v>
-      </c>
-      <c r="D11" t="str">
-        <v>male</v>
-      </c>
-      <c r="E11" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F11" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B12" t="str">
-        <v>MU 749:Lowland:1:0:10</v>
-      </c>
-      <c r="C12" t="str">
-        <v>11</v>
-      </c>
-      <c r="D12" t="str">
-        <v>male</v>
-      </c>
-      <c r="E12" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F12" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B13" t="str">
-        <v>MU 749:Lowland:1:0:11</v>
-      </c>
-      <c r="C13" t="str">
-        <v>12</v>
-      </c>
-      <c r="D13" t="str">
-        <v>male</v>
-      </c>
-      <c r="E13" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F13" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B14" t="str">
-        <v>MU 749:Lowland:1:0:12</v>
-      </c>
-      <c r="C14" t="str">
-        <v>13</v>
-      </c>
-      <c r="D14" t="str">
-        <v>male</v>
-      </c>
-      <c r="E14" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F14" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B15" t="str">
-        <v>MU 749:Lowland:1:0:13</v>
-      </c>
-      <c r="C15" t="str">
-        <v>14</v>
-      </c>
-      <c r="D15" t="str">
-        <v>male</v>
-      </c>
-      <c r="E15" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F15" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B16" t="str">
-        <v>MU 749:Lowland:1:0:14</v>
-      </c>
-      <c r="C16" t="str">
-        <v>15</v>
-      </c>
-      <c r="D16" t="str">
-        <v>female</v>
-      </c>
-      <c r="E16" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F16" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B17" t="str">
-        <v>MU 749:Lowland:1:0:15</v>
-      </c>
-      <c r="C17" t="str">
-        <v>16</v>
-      </c>
-      <c r="D17" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="E17" t="str">
-        <v>juvenile</v>
-      </c>
-      <c r="F17" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B18" t="str">
-        <v>MU 749:Lowland:1:0:16</v>
-      </c>
-      <c r="C18" t="str">
-        <v>17</v>
-      </c>
-      <c r="D18" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="E18" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F18" t="str">
-        <v>M-ALAM</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B19" t="str">
-        <v>MU 749:Lowland:1:0:17</v>
-      </c>
-      <c r="C19" t="str">
-        <v>18</v>
-      </c>
-      <c r="D19" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="E19" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F19" t="str">
-        <v>M-ALAM</v>
+        <v>S-ELK</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -947,129 +706,129 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>MU 749:Lowland:1:0:study-area</v>
+        <v>SA-1:BISID-1:0:block-id/su-id</v>
       </c>
       <c r="C2" t="str">
-        <v>Study Area</v>
+        <v>Block ID/SU ID</v>
       </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>MU 749</v>
+        <v>BISID-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B3" t="str">
-        <v>MU 749:Lowland:1:0:block-id/su-id</v>
+        <v>SA-1:BISID-1:0:group-label</v>
       </c>
       <c r="C3" t="str">
-        <v>Block ID/SU ID</v>
+        <v>Group Label</v>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>Lowland</v>
+        <v>GL-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B4" t="str">
-        <v>MU 749:Lowland:1:0:perpendicular-distance-from-transect-line</v>
+        <v>SA-1:BISID-1:0:sign-type</v>
       </c>
       <c r="C4" t="str">
-        <v>Perpendicular Distance From Transect Line</v>
+        <v>Sign Type</v>
       </c>
       <c r="D4" t="str">
-        <v>m</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>140.0</v>
+        <v>Body Parts</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B5" t="str">
-        <v>MU 749:Lowland:1:0:group-label</v>
+        <v>SA-1:BISID-1:0:sign-count</v>
       </c>
       <c r="C5" t="str">
-        <v>Group Label</v>
+        <v>Sign Count</v>
       </c>
       <c r="D5" t="str">
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B6" t="str">
-        <v>MU 749:Lowland:1:0:sign-type</v>
+        <v>SA-1:BISID-1:0:age-of-sign</v>
       </c>
       <c r="C6" t="str">
-        <v>Sign Type</v>
+        <v>Age of Sign</v>
       </c>
       <c r="D6" t="str">
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>Trail</v>
+        <v>Hour</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B7" t="str">
-        <v>MU 749:Lowland:1:0:sign-count</v>
+        <v>SA-1:BISID-1:0:topography</v>
       </c>
       <c r="C7" t="str">
-        <v>Sign Count</v>
+        <v>Topography</v>
       </c>
       <c r="D7" t="str">
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>19</v>
+        <v>flat</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B8" t="str">
-        <v>MU 749:Lowland:1:0:age-of-sign</v>
+        <v>SA-1:BISID-1:0:habitat</v>
       </c>
       <c r="C8" t="str">
-        <v>Age of Sign</v>
+        <v>Habitat</v>
       </c>
       <c r="D8" t="str">
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>Old</v>
+        <v>Avalanche Path</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B9" t="str">
-        <v>MU 749:Lowland:1:0:veg-cover</v>
+        <v>SA-1:BISID-1:0:veg-cover</v>
       </c>
       <c r="C9" t="str">
         <v>Veg Cover</v>
@@ -1078,15 +837,15 @@
         <v>%</v>
       </c>
       <c r="E9" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B10" t="str">
-        <v>MU 749:Lowland:1:0:snow-cover</v>
+        <v>SA-1:BISID-1:0:snow-cover</v>
       </c>
       <c r="C10" t="str">
         <v>Snow Cover</v>
@@ -1095,15 +854,15 @@
         <v>%</v>
       </c>
       <c r="E10" t="str">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B11" t="str">
-        <v>MU 749:Lowland:1:0:activity</v>
+        <v>SA-1:BISID-1:0:activity</v>
       </c>
       <c r="C11" t="str">
         <v>Activity</v>
@@ -1112,15 +871,15 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>Bedding</v>
+        <v>Moving</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B12" t="str">
-        <v>MU 749:Lowland:1:0:number-of-marked-animals-observed</v>
+        <v>SA-1:BISID-1:0:number-of-marked-animals-observed</v>
       </c>
       <c r="C12" t="str">
         <v>Number of Marked Animals Observed</v>
@@ -1129,15 +888,15 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B13" t="str">
-        <v>MU 749:Lowland:1:0:survey-or-telemetry-search</v>
+        <v>SA-1:BISID-1:0:survey-or-telemetry-search</v>
       </c>
       <c r="C13" t="str">
         <v>Survey or Telemetry Search</v>
@@ -1151,10 +910,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B14" t="str">
-        <v>MU 749:Lowland:1:0:photos</v>
+        <v>SA-1:BISID-1:0:photos</v>
       </c>
       <c r="C14" t="str">
         <v>Photos</v>
@@ -1163,15 +922,15 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>some_photo</v>
+        <v>some_phtos</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B15" t="str">
-        <v>16-00001:MF001:6A7981:0:targeted-or-non-targeted</v>
+        <v>wlid:aid:tdid:0:targeted-or-non-targeted</v>
       </c>
       <c r="C15" t="str">
         <v>Targeted or Non-Targeted</v>
@@ -1183,15 +942,15 @@
         <v>Targeted</v>
       </c>
       <c r="F15" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B16" t="str">
-        <v>16-00001:MF001:6A7981:0:wildlife-health-id</v>
+        <v>wlid:aid:tdid:0:wildlife-health-id</v>
       </c>
       <c r="C16" t="str">
         <v>Wildlife Health ID</v>
@@ -1200,18 +959,18 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>16-00001</v>
+        <v>wlid</v>
       </c>
       <c r="F16" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B17" t="str">
-        <v>16-00001:MF001:6A7981:0:animal-id</v>
+        <v>wlid:aid:tdid:0:animal-id</v>
       </c>
       <c r="C17" t="str">
         <v>Animal ID</v>
@@ -1220,18 +979,18 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>MF001</v>
+        <v>aid</v>
       </c>
       <c r="F17" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B18" t="str">
-        <v>16-00001:MF001:6A7981:0:telemetry-device-id</v>
+        <v>wlid:aid:tdid:0:telemetry-device-id</v>
       </c>
       <c r="C18" t="str">
         <v>Telemetry Device ID</v>
@@ -1240,38 +999,38 @@
         <v/>
       </c>
       <c r="E18" t="str">
-        <v>6A7981</v>
+        <v>tdid</v>
       </c>
       <c r="F18" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B19" t="str">
-        <v>16-00001:MF001:6A7981:0:collar/tag-frequency</v>
+        <v>wlid:aid:tdid:0:collar/tag-frequency</v>
       </c>
       <c r="C19" t="str">
         <v>Collar/Tag Frequency</v>
       </c>
       <c r="D19" t="str">
-        <v>KHz</v>
+        <v>MHz</v>
       </c>
       <c r="E19" t="str">
-        <v>151.002</v>
+        <v>ctid</v>
       </c>
       <c r="F19" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B20" t="str">
-        <v>16-00001:MF001:6A7981:0:right-ear-tag-id</v>
+        <v>wlid:aid:tdid:0:right-ear-tag-id</v>
       </c>
       <c r="C20" t="str">
         <v>Right Ear Tag ID</v>
@@ -1280,18 +1039,18 @@
         <v/>
       </c>
       <c r="E20" t="str">
-        <v>reti</v>
+        <v>retid</v>
       </c>
       <c r="F20" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B21" t="str">
-        <v>16-00001:MF001:6A7981:0:right-ear-tag-colour</v>
+        <v>wlid:aid:tdid:0:right-ear-tag-colour</v>
       </c>
       <c r="C21" t="str">
         <v>Right Ear Tag Colour</v>
@@ -1303,15 +1062,15 @@
         <v>retc</v>
       </c>
       <c r="F21" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B22" t="str">
-        <v>16-00001:MF001:6A7981:0:left-ear-tag-id</v>
+        <v>wlid:aid:tdid:0:left-ear-tag-id</v>
       </c>
       <c r="C22" t="str">
         <v>Left Ear Tag ID</v>
@@ -1320,18 +1079,18 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>leti</v>
+        <v>letid</v>
       </c>
       <c r="F22" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B23" t="str">
-        <v>16-00001:MF001:6A7981:0:left-ear-tag-colour</v>
+        <v>wlid:aid:tdid:0:left-ear-tag-colour</v>
       </c>
       <c r="C23" t="str">
         <v>Left Ear Tag Colour</v>
@@ -1343,15 +1102,15 @@
         <v>letc</v>
       </c>
       <c r="F23" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B24" t="str">
-        <v>16-00001:MF001:6A7981:0:marked-animals-comments</v>
+        <v>wlid:aid:tdid:0:marked-animals-comments</v>
       </c>
       <c r="C24" t="str">
         <v>Marked Animals Comments</v>
@@ -1360,18 +1119,18 @@
         <v/>
       </c>
       <c r="E24" t="str">
-        <v>marked animals here</v>
+        <v>marked comments</v>
       </c>
       <c r="F24" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B25" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
+        <v>SA-1:BISID-1:0:antler-configuration</v>
       </c>
       <c r="C25" t="str">
         <v>Antler Configuration</v>
@@ -1380,315 +1139,15 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <v>Spike/Fork</v>
+        <v>unclassified</v>
       </c>
       <c r="G25" t="str">
-        <v>MU 749:Lowland:1:0:0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B26" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D26" t="str">
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <v>Sub-Prime</v>
-      </c>
-      <c r="G26" t="str">
-        <v>MU 749:Lowland:1:0:1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B27" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <v>Prime</v>
-      </c>
-      <c r="G27" t="str">
-        <v>MU 749:Lowland:1:0:2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B28" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D28" t="str">
-        <v/>
-      </c>
-      <c r="E28" t="str">
-        <v>Senior</v>
-      </c>
-      <c r="G28" t="str">
-        <v>MU 749:Lowland:1:0:3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B29" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <v>3 Brow/10 Points</v>
-      </c>
-      <c r="G29" t="str">
-        <v>MU 749:Lowland:1:0:4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B30" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <v>BC RISC Yearling</v>
-      </c>
-      <c r="G30" t="str">
-        <v>MU 749:Lowland:1:0:5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B31" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v>BC RISC Class I</v>
-      </c>
-      <c r="G31" t="str">
-        <v>MU 749:Lowland:1:0:6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B32" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D32" t="str">
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <v>BC RISC Class II</v>
-      </c>
-      <c r="G32" t="str">
-        <v>MU 749:Lowland:1:0:7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B33" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D33" t="str">
-        <v/>
-      </c>
-      <c r="E33" t="str">
-        <v>BC RISC Class III</v>
-      </c>
-      <c r="G33" t="str">
-        <v>MU 749:Lowland:1:0:8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B34" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-      <c r="E34" t="str">
-        <v>Oswald (1997) Class I</v>
-      </c>
-      <c r="G34" t="str">
-        <v>MU 749:Lowland:1:0:9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B35" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D35" t="str">
-        <v/>
-      </c>
-      <c r="E35" t="str">
-        <v>Oswald (1997) Class II</v>
-      </c>
-      <c r="G35" t="str">
-        <v>MU 749:Lowland:1:0:10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B36" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D36" t="str">
-        <v/>
-      </c>
-      <c r="E36" t="str">
-        <v>Oswald (1997) Class III</v>
-      </c>
-      <c r="G36" t="str">
-        <v>MU 749:Lowland:1:0:11</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B37" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D37" t="str">
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <v>unclassified</v>
-      </c>
-      <c r="G37" t="str">
-        <v>MU 749:Lowland:1:0:12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B38" t="str">
-        <v>MU 749:Lowland:1:0:antler-configuration</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D38" t="str">
-        <v/>
-      </c>
-      <c r="E38" t="str">
-        <v>unclassified</v>
-      </c>
-      <c r="G38" t="str">
-        <v>MU 749:Lowland:1:0:13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B39" t="str">
-        <v>MU 749:Lowland:1:0:cow-w/1-calf</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Cow W/1 calf</v>
-      </c>
-      <c r="D39" t="str">
-        <v/>
-      </c>
-      <c r="E39" t="str">
-        <v>1</v>
-      </c>
-      <c r="G39" t="str">
-        <v>MU 749:Lowland:1:0:14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>MU 749:Lowland:1:0</v>
-      </c>
-      <c r="B40" t="str">
-        <v>MU 749:Lowland:1:0:cow-w/2-calf</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Cow W/2 calf</v>
-      </c>
-      <c r="D40" t="str">
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <v>2</v>
-      </c>
-      <c r="G40" t="str">
-        <v>MU 749:Lowland:1:0:14</v>
+        <v>SA-1:BISID-1:0:16</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G25"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1713,13 +1172,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MU 749:Lowland:1:0</v>
+        <v>SA-1:BISID-1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>16-00001:MF001:6A7981:0</v>
+        <v>wlid:aid:tdid:0</v>
       </c>
       <c r="C2" t="str">
-        <v>marked animals here</v>
+        <v>marked comments</v>
       </c>
     </row>
   </sheetData>

--- a/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
+++ b/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
@@ -7,8 +7,8 @@
     <sheet name="event" sheetId="2" r:id="rId2"/>
     <sheet name="location" sheetId="3" r:id="rId3"/>
     <sheet name="occurrence" sheetId="4" r:id="rId4"/>
-    <sheet name="measurementOrFact" sheetId="5" r:id="rId5"/>
-    <sheet name="organism" sheetId="6" r:id="rId6"/>
+    <sheet name="organism" sheetId="5" r:id="rId5"/>
+    <sheet name="measurementOrFact" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -37,14 +37,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-1009]d/mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[$-1009]d/mmm/yy;@"/>
+    <numFmt numFmtId="168" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -415,7 +416,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>eventId</v>
+        <v>eventID</v>
       </c>
       <c r="B1" t="str">
         <v xml:space="preserve">basisOfRecord </v>
@@ -423,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B2" t="str">
         <v>HumanObservation</v>
@@ -456,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B2" t="str">
-        <v>27/Feb/23</v>
+        <v>27-Feb-19</v>
       </c>
       <c r="C2" t="str">
-        <v>coments son</v>
+        <v>some cool goats</v>
       </c>
     </row>
   </sheetData>
@@ -498,19 +499,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B2" t="str">
-        <v>8 1 1</v>
+        <v>11 611410 5483836</v>
       </c>
       <c r="C2" t="str">
-        <v>lat</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>long</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>NAD27</v>
+        <v>WGS84</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +523,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,613 +547,121 @@
       <c r="F1" t="str">
         <v>taxonID</v>
       </c>
+      <c r="G1" t="str">
+        <v>occurrenceRemarks</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B2" t="str">
-        <v>SA-1:BISID-1:0:16</v>
+        <v>my_study_area:Bull River:0:0</v>
       </c>
       <c r="C2" t="str">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>male</v>
+        <v>unknown</v>
       </c>
       <c r="E2" t="str">
         <v>adult</v>
       </c>
       <c r="F2" t="str">
-        <v>S-ELK</v>
+        <v>M-ORAM</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B3" t="str">
-        <v>SA-1:BISID-1:0:17</v>
+        <v>my_study_area:Bull River:0:1</v>
       </c>
       <c r="C3" t="str">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>female</v>
+        <v>unknown</v>
       </c>
       <c r="E3" t="str">
-        <v>adult</v>
+        <v>juvenile</v>
       </c>
       <c r="F3" t="str">
-        <v>S-ELK</v>
+        <v>M-ORAM</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B4" t="str">
-        <v>SA-1:BISID-1:0:18</v>
+        <v>my_study_area:Bull River:0:2</v>
       </c>
       <c r="C4" t="str">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
-        <v>unknown</v>
+        <v>female</v>
       </c>
       <c r="E4" t="str">
-        <v>juvenile</v>
+        <v>adult</v>
       </c>
       <c r="F4" t="str">
-        <v>S-ELK</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G4" t="str">
+        <v>some cool goats</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B5" t="str">
-        <v>SA-1:BISID-1:0:19</v>
+        <v>my_study_area:Bull River:0:3</v>
       </c>
       <c r="C5" t="str">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
-        <v>unknown</v>
+        <v>male</v>
       </c>
       <c r="E5" t="str">
         <v>adult</v>
       </c>
       <c r="F5" t="str">
-        <v>S-ELK</v>
+        <v>M-ORAM</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B6" t="str">
-        <v>SA-1:BISID-1:0:20</v>
+        <v>my_study_area:Bull River:0:4</v>
       </c>
       <c r="C6" t="str">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
         <v>unknown</v>
       </c>
       <c r="E6" t="str">
-        <v>yearling</v>
+        <v>unknown</v>
       </c>
       <c r="F6" t="str">
-        <v>S-ELK</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B7" t="str">
-        <v>SA-1:BISID-1:0:21</v>
-      </c>
-      <c r="C7" t="str">
-        <v>21</v>
-      </c>
-      <c r="D7" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="E7" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F7" t="str">
-        <v>S-ELK</v>
+        <v>M-ORAM</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eventID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>measurementID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>measurementType</v>
-      </c>
-      <c r="D1" t="str">
-        <v>measurementUnit</v>
-      </c>
-      <c r="E1" t="str">
-        <v>measurementValue</v>
-      </c>
-      <c r="F1" t="str">
-        <v>organismID</v>
-      </c>
-      <c r="G1" t="str">
-        <v>occurrenceID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>SA-1:BISID-1:0:block-id/su-id</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Block ID/SU ID</v>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v>BISID-1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B3" t="str">
-        <v>SA-1:BISID-1:0:group-label</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Group Label</v>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v>GL-1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B4" t="str">
-        <v>SA-1:BISID-1:0:sign-type</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Sign Type</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>Body Parts</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B5" t="str">
-        <v>SA-1:BISID-1:0:sign-count</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Sign Count</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B6" t="str">
-        <v>SA-1:BISID-1:0:age-of-sign</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Age of Sign</v>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v>Hour</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B7" t="str">
-        <v>SA-1:BISID-1:0:topography</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Topography</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v>flat</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B8" t="str">
-        <v>SA-1:BISID-1:0:habitat</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Habitat</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v>Avalanche Path</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B9" t="str">
-        <v>SA-1:BISID-1:0:veg-cover</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Veg Cover</v>
-      </c>
-      <c r="D9" t="str">
-        <v>%</v>
-      </c>
-      <c r="E9" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B10" t="str">
-        <v>SA-1:BISID-1:0:snow-cover</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Snow Cover</v>
-      </c>
-      <c r="D10" t="str">
-        <v>%</v>
-      </c>
-      <c r="E10" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B11" t="str">
-        <v>SA-1:BISID-1:0:activity</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Activity</v>
-      </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <v>Moving</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B12" t="str">
-        <v>SA-1:BISID-1:0:number-of-marked-animals-observed</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Number of Marked Animals Observed</v>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B13" t="str">
-        <v>SA-1:BISID-1:0:survey-or-telemetry-search</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Survey or Telemetry Search</v>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v>Survey</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B14" t="str">
-        <v>SA-1:BISID-1:0:photos</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Photos</v>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <v>some_phtos</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B15" t="str">
-        <v>wlid:aid:tdid:0:targeted-or-non-targeted</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Targeted or Non-Targeted</v>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v>Targeted</v>
-      </c>
-      <c r="F15" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B16" t="str">
-        <v>wlid:aid:tdid:0:wildlife-health-id</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Wildlife Health ID</v>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v>wlid</v>
-      </c>
-      <c r="F16" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B17" t="str">
-        <v>wlid:aid:tdid:0:animal-id</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Animal ID</v>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v>aid</v>
-      </c>
-      <c r="F17" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B18" t="str">
-        <v>wlid:aid:tdid:0:telemetry-device-id</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Telemetry Device ID</v>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <v>tdid</v>
-      </c>
-      <c r="F18" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B19" t="str">
-        <v>wlid:aid:tdid:0:collar/tag-frequency</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Collar/Tag Frequency</v>
-      </c>
-      <c r="D19" t="str">
-        <v>MHz</v>
-      </c>
-      <c r="E19" t="str">
-        <v>ctid</v>
-      </c>
-      <c r="F19" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B20" t="str">
-        <v>wlid:aid:tdid:0:right-ear-tag-id</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Right Ear Tag ID</v>
-      </c>
-      <c r="D20" t="str">
-        <v/>
-      </c>
-      <c r="E20" t="str">
-        <v>retid</v>
-      </c>
-      <c r="F20" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B21" t="str">
-        <v>wlid:aid:tdid:0:right-ear-tag-colour</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Right Ear Tag Colour</v>
-      </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <v>retc</v>
-      </c>
-      <c r="F21" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B22" t="str">
-        <v>wlid:aid:tdid:0:left-ear-tag-id</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Left Ear Tag ID</v>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <v>letid</v>
-      </c>
-      <c r="F22" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B23" t="str">
-        <v>wlid:aid:tdid:0:left-ear-tag-colour</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Left Ear Tag Colour</v>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v>letc</v>
-      </c>
-      <c r="F23" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B24" t="str">
-        <v>wlid:aid:tdid:0:marked-animals-comments</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Marked Animals Comments</v>
-      </c>
-      <c r="D24" t="str">
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <v>marked comments</v>
-      </c>
-      <c r="F24" t="str">
-        <v>wlid:aid:tdid:0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>SA-1:BISID-1:0</v>
-      </c>
-      <c r="B25" t="str">
-        <v>SA-1:BISID-1:0:antler-configuration</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Antler Configuration</v>
-      </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <v>unclassified</v>
-      </c>
-      <c r="G25" t="str">
-        <v>SA-1:BISID-1:0:16</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G25"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1172,13 +681,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BISID-1:0</v>
+        <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B2" t="str">
-        <v>wlid:aid:tdid:0</v>
+        <v>WHID1:BH001:6A10298:0</v>
       </c>
       <c r="C2" t="str">
-        <v>marked comments</v>
+        <v>marked_comment_1</v>
       </c>
     </row>
   </sheetData>
@@ -1186,4 +695,510 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>eventID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>measurementID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>measurementType</v>
+      </c>
+      <c r="D1" t="str">
+        <v>measurementValue</v>
+      </c>
+      <c r="E1" t="str">
+        <v>measurementUnit</v>
+      </c>
+      <c r="F1" t="str">
+        <v>organismID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>my_study_area:Bull River:0:study-area</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D2" t="str">
+        <v>my_study_area</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>my_study_area:Bull River:0:block-id/su-id</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Bull River</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B4" t="str">
+        <v>my_study_area:Bull River:0:group-label</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Group Label</v>
+      </c>
+      <c r="D4" t="str">
+        <v>106</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>my_study_area:Bull River:0:sign-type</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Sign Type</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Body Parts</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B6" t="str">
+        <v>my_study_area:Bull River:0:sign-count</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Sign Count</v>
+      </c>
+      <c r="D6" t="str">
+        <v>4</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B7" t="str">
+        <v>my_study_area:Bull River:0:age-of-sign</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Age of Sign</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Day</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B8" t="str">
+        <v>my_study_area:Bull River:0:veg-cover</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D8" t="str">
+        <v>50</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B9" t="str">
+        <v>my_study_area:Bull River:0:snow-cover</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D9" t="str">
+        <v>20</v>
+      </c>
+      <c r="E9" t="str">
+        <v>%</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B10" t="str">
+        <v>my_study_area:Bull River:0:activity</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Walking</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B11" t="str">
+        <v>my_study_area:Bull River:0:elevation-observation</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Elevation (m) of Observation</v>
+      </c>
+      <c r="D11" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B12" t="str">
+        <v>my_study_area:Bull River:0:habitat</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Cutblock</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B13" t="str">
+        <v>my_study_area:Bull River:0:wind-blown</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Wind Blown</v>
+      </c>
+      <c r="D13" t="str">
+        <v>N</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B14" t="str">
+        <v>my_study_area:Bull River:0:terrain-obstruction</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Terrain Obstruction</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Y</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B15" t="str">
+        <v>my_study_area:Bull River:0:number-of-marked-animals-observed</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Number of Marked Animals Observed</v>
+      </c>
+      <c r="D15" t="str">
+        <v>6</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B16" t="str">
+        <v>my_study_area:Bull River:0:survey-or-telemetry-search</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Survey or Telemetry Search</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Telemetry</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B17" t="str">
+        <v>my_study_area:Bull River:0:photos</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Photos</v>
+      </c>
+      <c r="D17" t="str">
+        <v>some_photos</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B18" t="str">
+        <v>WHID1:BH001:6A10298:0:targeted-or-non-targeted</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Targeted or Non-Targeted</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Targeted</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B19" t="str">
+        <v>WHID1:BH001:6A10298:0:wildlife-health-id</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Wildlife Health ID</v>
+      </c>
+      <c r="D19" t="str">
+        <v>WHID1</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B20" t="str">
+        <v>WHID1:BH001:6A10298:0:animal-id</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Animal ID</v>
+      </c>
+      <c r="D20" t="str">
+        <v>BH001</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B21" t="str">
+        <v>WHID1:BH001:6A10298:0:telemetry-device-id</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Telemetry Device ID</v>
+      </c>
+      <c r="D21" t="str">
+        <v>6A10298</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B22" t="str">
+        <v>WHID1:BH001:6A10298:0:collar/tag-frequency</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Collar/Tag Frequency</v>
+      </c>
+      <c r="D22" t="str">
+        <v>150.151</v>
+      </c>
+      <c r="E22" t="str">
+        <v>KHz</v>
+      </c>
+      <c r="F22" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B23" t="str">
+        <v>WHID1:BH001:6A10298:0:right-ear-tag-id</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Right Ear Tag ID</v>
+      </c>
+      <c r="D23" t="str">
+        <v>right_ear_tag_1</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B24" t="str">
+        <v>WHID1:BH001:6A10298:0:right-ear-tag-colour</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Right Ear Tag Colour</v>
+      </c>
+      <c r="D24" t="str">
+        <v>right_ear_color_1</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B25" t="str">
+        <v>WHID1:BH001:6A10298:0:left-ear-tag-id</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Left Ear Tag ID</v>
+      </c>
+      <c r="D25" t="str">
+        <v>left_ear_tag_1</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B26" t="str">
+        <v>WHID1:BH001:6A10298:0:left-ear-tag-colour</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Left Ear Tag Colour</v>
+      </c>
+      <c r="D26" t="str">
+        <v>left_ear_color_1</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B27" t="str">
+        <v>WHID1:BH001:6A10298:0:marked-animals-comments</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Marked Animals Comments</v>
+      </c>
+      <c r="D27" t="str">
+        <v>marked_comment_1</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>WHID1:BH001:6A10298:0</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F27"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
+++ b/utils/templates/observations/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
@@ -3,12 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="record" sheetId="1" r:id="rId1"/>
-    <sheet name="event" sheetId="2" r:id="rId2"/>
-    <sheet name="location" sheetId="3" r:id="rId3"/>
-    <sheet name="occurrence" sheetId="4" r:id="rId4"/>
-    <sheet name="organism" sheetId="5" r:id="rId5"/>
-    <sheet name="measurementOrFact" sheetId="6" r:id="rId6"/>
+    <sheet name="event" sheetId="1" r:id="rId1"/>
+    <sheet name="location" sheetId="2" r:id="rId2"/>
+    <sheet name="occurrence" sheetId="3" r:id="rId3"/>
+    <sheet name="organism" sheetId="4" r:id="rId4"/>
+    <sheet name="measurementOrFact" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -409,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,6 +418,12 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
+        <v>eventDate</v>
+      </c>
+      <c r="C1" t="str">
+        <v>eventRemarks</v>
+      </c>
+      <c r="D1" t="str">
         <v xml:space="preserve">basisOfRecord </v>
       </c>
     </row>
@@ -427,17 +432,211 @@
         <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B2" t="str">
+        <v>27-Feb-19</v>
+      </c>
+      <c r="C2" t="str">
+        <v>some cool goats</v>
+      </c>
+      <c r="D2" t="str">
         <v>HumanObservation</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>eventID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>verbatimCoordinates</v>
+      </c>
+      <c r="C1" t="str">
+        <v>decimalLatitude</v>
+      </c>
+      <c r="D1" t="str">
+        <v>decimalLongitude</v>
+      </c>
+      <c r="E1" t="str">
+        <v>verbatimSRS</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>11 611410 5483836</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>WGS84</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>eventID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>occurrenceID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>individualCount</v>
+      </c>
+      <c r="D1" t="str">
+        <v>sex</v>
+      </c>
+      <c r="E1" t="str">
+        <v>lifeStage</v>
+      </c>
+      <c r="F1" t="str">
+        <v>taxonID</v>
+      </c>
+      <c r="G1" t="str">
+        <v>occurrenceRemarks</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>my_study_area:Bull River:0:0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E2" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F2" t="str">
+        <v>M-ORAM</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>my_study_area:Bull River:0:1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E3" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F3" t="str">
+        <v>M-ORAM</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B4" t="str">
+        <v>my_study_area:Bull River:0:2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>female</v>
+      </c>
+      <c r="E4" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F4" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G4" t="str">
+        <v>some cool goats</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>my_study_area:Bull River:0:3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>male</v>
+      </c>
+      <c r="E5" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F5" t="str">
+        <v>M-ORAM</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>my_study_area:Bull River:0</v>
+      </c>
+      <c r="B6" t="str">
+        <v>my_study_area:Bull River:0:4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E6" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="F6" t="str">
+        <v>M-ORAM</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -449,10 +648,10 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>eventDate</v>
+        <v>organismID</v>
       </c>
       <c r="C1" t="str">
-        <v>eventRemarks</v>
+        <v>organismRemarks</v>
       </c>
     </row>
     <row r="2">
@@ -460,10 +659,10 @@
         <v>my_study_area:Bull River:0</v>
       </c>
       <c r="B2" t="str">
-        <v>27-Feb-19</v>
+        <v>WHID1:BH001:6A10298:0</v>
       </c>
       <c r="C2" t="str">
-        <v>some cool goats</v>
+        <v>marked_comment_1</v>
       </c>
     </row>
   </sheetData>
@@ -473,231 +672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eventID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>verbatimCoordinates</v>
-      </c>
-      <c r="C1" t="str">
-        <v>decimalLatitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>decimalLongitude</v>
-      </c>
-      <c r="E1" t="str">
-        <v>verbatimSRS</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>my_study_area:Bull River:0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>11 611410 5483836</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v>WGS84</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eventID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>occurrenceID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>individualCount</v>
-      </c>
-      <c r="D1" t="str">
-        <v>sex</v>
-      </c>
-      <c r="E1" t="str">
-        <v>lifeStage</v>
-      </c>
-      <c r="F1" t="str">
-        <v>taxonID</v>
-      </c>
-      <c r="G1" t="str">
-        <v>occurrenceRemarks</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>my_study_area:Bull River:0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>my_study_area:Bull River:0:0</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="E2" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F2" t="str">
-        <v>M-ORAM</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>my_study_area:Bull River:0</v>
-      </c>
-      <c r="B3" t="str">
-        <v>my_study_area:Bull River:0:1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="E3" t="str">
-        <v>juvenile</v>
-      </c>
-      <c r="F3" t="str">
-        <v>M-ORAM</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>my_study_area:Bull River:0</v>
-      </c>
-      <c r="B4" t="str">
-        <v>my_study_area:Bull River:0:2</v>
-      </c>
-      <c r="C4" t="str">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>female</v>
-      </c>
-      <c r="E4" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F4" t="str">
-        <v>M-ORAM</v>
-      </c>
-      <c r="G4" t="str">
-        <v>some cool goats</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>my_study_area:Bull River:0</v>
-      </c>
-      <c r="B5" t="str">
-        <v>my_study_area:Bull River:0:3</v>
-      </c>
-      <c r="C5" t="str">
-        <v>4</v>
-      </c>
-      <c r="D5" t="str">
-        <v>male</v>
-      </c>
-      <c r="E5" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F5" t="str">
-        <v>M-ORAM</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>my_study_area:Bull River:0</v>
-      </c>
-      <c r="B6" t="str">
-        <v>my_study_area:Bull River:0:4</v>
-      </c>
-      <c r="C6" t="str">
-        <v>5</v>
-      </c>
-      <c r="D6" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="E6" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F6" t="str">
-        <v>M-ORAM</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eventID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>organismID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>organismRemarks</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>my_study_area:Bull River:0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>WHID1:BH001:6A10298:0</v>
-      </c>
-      <c r="C2" t="str">
-        <v>marked_comment_1</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
